--- a/AAII_Financials/Yearly/YSG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YSG_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>461100</v>
+        <v>463100</v>
       </c>
       <c r="E8" s="3">
-        <v>96600</v>
+        <v>97100</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -739,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>167900</v>
+        <v>168600</v>
       </c>
       <c r="E9" s="3">
-        <v>35300</v>
+        <v>35500</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -766,10 +766,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>293200</v>
+        <v>294500</v>
       </c>
       <c r="E10" s="3">
-        <v>61300</v>
+        <v>61600</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -924,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>439200</v>
+        <v>441100</v>
       </c>
       <c r="E17" s="3">
-        <v>101700</v>
+        <v>102200</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -951,7 +951,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>21900</v>
+        <v>22000</v>
       </c>
       <c r="E18" s="3">
         <v>-5100</v>
@@ -1018,7 +1018,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>24500</v>
+        <v>24600</v>
       </c>
       <c r="E21" s="3">
         <v>-5400</v>
@@ -1072,7 +1072,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>22400</v>
+        <v>22500</v>
       </c>
       <c r="E23" s="3">
         <v>-5500</v>
@@ -1099,7 +1099,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="E24" s="3">
         <v>600</v>
@@ -1481,7 +1481,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>102900</v>
+        <v>103400</v>
       </c>
       <c r="E41" s="3">
         <v>3800</v>
@@ -1535,10 +1535,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>44600</v>
+        <v>44800</v>
       </c>
       <c r="E43" s="3">
-        <v>23700</v>
+        <v>23800</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1562,10 +1562,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>76700</v>
+        <v>77000</v>
       </c>
       <c r="E44" s="3">
-        <v>13300</v>
+        <v>13400</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -1589,7 +1589,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="E45" s="3">
         <v>3000</v>
@@ -1616,10 +1616,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>239100</v>
+        <v>240100</v>
       </c>
       <c r="E46" s="3">
-        <v>43800</v>
+        <v>44000</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1670,7 +1670,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>56700</v>
+        <v>56900</v>
       </c>
       <c r="E48" s="3">
         <v>3600</v>
@@ -1778,7 +1778,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="E52" s="3">
         <v>1900</v>
@@ -1832,10 +1832,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>305800</v>
+        <v>307100</v>
       </c>
       <c r="E54" s="3">
-        <v>49900</v>
+        <v>50100</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1885,10 +1885,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>60900</v>
+        <v>61200</v>
       </c>
       <c r="E57" s="3">
-        <v>13700</v>
+        <v>13800</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1939,10 +1939,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>55200</v>
+        <v>55400</v>
       </c>
       <c r="E59" s="3">
-        <v>14300</v>
+        <v>14400</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -1966,10 +1966,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>116100</v>
+        <v>116600</v>
       </c>
       <c r="E60" s="3">
-        <v>28500</v>
+        <v>28600</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -2020,7 +2020,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26300</v>
+        <v>26400</v>
       </c>
       <c r="E62" s="3">
         <v>1800</v>
@@ -2128,10 +2128,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>142400</v>
+        <v>143000</v>
       </c>
       <c r="E66" s="3">
-        <v>30200</v>
+        <v>30400</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2222,10 +2222,10 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>171900</v>
+        <v>172600</v>
       </c>
       <c r="E70" s="3">
-        <v>28600</v>
+        <v>28700</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2279,7 +2279,7 @@
         <v>-10700</v>
       </c>
       <c r="E72" s="3">
-        <v>-9100</v>
+        <v>-9200</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2675,7 +2675,7 @@
         <v>-900</v>
       </c>
       <c r="E89" s="3">
-        <v>-14600</v>
+        <v>-14700</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2793,7 +2793,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-22500</v>
+        <v>-22600</v>
       </c>
       <c r="E94" s="3">
         <v>-1200</v>
@@ -2941,10 +2941,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>121000</v>
+        <v>121500</v>
       </c>
       <c r="E100" s="3">
-        <v>18800</v>
+        <v>18900</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -2995,7 +2995,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>99100</v>
+        <v>99500</v>
       </c>
       <c r="E102" s="3">
         <v>3100</v>

--- a/AAII_Financials/Yearly/YSG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YSG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
   <si>
     <t>YSG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,34 +665,34 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,20 +705,23 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>463100</v>
+        <v>816400</v>
       </c>
       <c r="E8" s="3">
-        <v>97100</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
+        <v>472900</v>
+      </c>
+      <c r="F8" s="3">
+        <v>99100</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -732,20 +735,23 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>168600</v>
+        <v>288300</v>
       </c>
       <c r="E9" s="3">
-        <v>35500</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+        <v>172200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>36200</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -759,20 +765,23 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>294500</v>
+        <v>528100</v>
       </c>
       <c r="E10" s="3">
-        <v>61600</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+        <v>300700</v>
+      </c>
+      <c r="F10" s="3">
+        <v>62900</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,20 +812,21 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>3500</v>
+        <v>10400</v>
       </c>
       <c r="E12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,36 +869,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -907,9 +929,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,19 +943,20 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>441100</v>
+        <v>1235000</v>
       </c>
       <c r="E17" s="3">
-        <v>102200</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
+        <v>450500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>104300</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -944,20 +970,23 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>22000</v>
+        <v>-418500</v>
       </c>
       <c r="E18" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+        <v>22400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-5200</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,20 +1017,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
+        <v>600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1011,20 +1044,23 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>24600</v>
+        <v>-406200</v>
       </c>
       <c r="E21" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+        <v>25200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-5600</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1038,9 +1074,12 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1065,20 +1104,23 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>22500</v>
+        <v>-418300</v>
       </c>
       <c r="E23" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
+        <v>23000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-5600</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1092,21 +1134,24 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11000</v>
+        <v>1100</v>
       </c>
       <c r="E24" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1119,9 +1164,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,20 +1194,23 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>11500</v>
+        <v>-419400</v>
       </c>
       <c r="E26" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+        <v>11800</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-6300</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1173,20 +1224,23 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-6900</v>
+        <v>-621600</v>
       </c>
       <c r="E27" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+        <v>-7000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-7300</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,21 +1374,24 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1335,20 +1404,23 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-6900</v>
+        <v>-621600</v>
       </c>
       <c r="E33" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+        <v>-7000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-7300</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,20 +1464,23 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-6900</v>
+        <v>-621600</v>
       </c>
       <c r="E35" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+        <v>-7000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-7300</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1416,26 +1494,29 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,19 +1560,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>103400</v>
+        <v>893500</v>
       </c>
       <c r="E41" s="3">
-        <v>3800</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>105600</v>
+      </c>
+      <c r="F41" s="3">
+        <v>3900</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1501,20 +1587,23 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+        <v>1600</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1528,20 +1617,23 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>44800</v>
+        <v>82100</v>
       </c>
       <c r="E43" s="3">
-        <v>23800</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>45700</v>
+      </c>
+      <c r="F43" s="3">
+        <v>24300</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1555,20 +1647,23 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>77000</v>
+        <v>96200</v>
       </c>
       <c r="E44" s="3">
-        <v>13400</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+        <v>78600</v>
+      </c>
+      <c r="F44" s="3">
+        <v>13600</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1582,20 +1677,23 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13500</v>
+        <v>34100</v>
       </c>
       <c r="E45" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+        <v>13800</v>
+      </c>
+      <c r="F45" s="3">
+        <v>3100</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1609,20 +1707,23 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>240100</v>
+        <v>1105900</v>
       </c>
       <c r="E46" s="3">
-        <v>44000</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>245200</v>
+      </c>
+      <c r="F46" s="3">
+        <v>44900</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1636,21 +1737,24 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>500</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1663,20 +1767,23 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>56900</v>
+        <v>128200</v>
       </c>
       <c r="E48" s="3">
-        <v>3600</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>58200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3700</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1690,21 +1797,24 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4700</v>
+        <v>32700</v>
       </c>
       <c r="E49" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F49" s="3">
         <v>200</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,20 +1887,23 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5400</v>
+        <v>23800</v>
       </c>
       <c r="E52" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+        <v>5500</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2000</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,20 +1947,23 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>307100</v>
+        <v>1296100</v>
       </c>
       <c r="E54" s="3">
-        <v>50100</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>313600</v>
+      </c>
+      <c r="F54" s="3">
+        <v>51200</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,19 +2008,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>61200</v>
+        <v>72800</v>
       </c>
       <c r="E57" s="3">
-        <v>13800</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>62500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>14100</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1905,20 +2035,23 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
-        <v>400</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>500</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -1932,20 +2065,23 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>55400</v>
+        <v>103600</v>
       </c>
       <c r="E59" s="3">
-        <v>14400</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>56600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>14700</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1959,20 +2095,23 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>116600</v>
+        <v>176400</v>
       </c>
       <c r="E60" s="3">
-        <v>28600</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>119100</v>
+      </c>
+      <c r="F60" s="3">
+        <v>29200</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -1986,9 +2125,12 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2013,21 +2155,24 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26400</v>
+        <v>48900</v>
       </c>
       <c r="E62" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F62" s="3">
         <v>1800</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,20 +2275,23 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>143000</v>
+        <v>227700</v>
       </c>
       <c r="E66" s="3">
-        <v>30400</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>146000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>31000</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,20 +2379,23 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>172600</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>28700</v>
+        <v>176300</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>29300</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,20 +2439,23 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-10700</v>
+        <v>-658400</v>
       </c>
       <c r="E72" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-11000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-9400</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,20 +2559,23 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-8500</v>
+        <v>1068400</v>
       </c>
       <c r="E76" s="3">
-        <v>-8900</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>-8700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-9100</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,26 +2619,29 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,20 +2654,23 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-6900</v>
+        <v>-621600</v>
       </c>
       <c r="E81" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
+        <v>-7000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-7300</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,20 +2701,21 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2100</v>
+        <v>12200</v>
       </c>
       <c r="E83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,20 +2878,23 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-900</v>
+        <v>-153400</v>
       </c>
       <c r="E89" s="3">
-        <v>-14700</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+        <v>-1000</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-15000</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,20 +2925,21 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-16200</v>
+        <v>-35200</v>
       </c>
       <c r="E91" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,21 +3012,24 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-22600</v>
+        <v>-79400</v>
       </c>
       <c r="E94" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1200</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,20 +3176,23 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>121500</v>
+        <v>1042300</v>
       </c>
       <c r="E100" s="3">
-        <v>18900</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+        <v>124100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>19300</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2961,21 +3206,24 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1600</v>
+        <v>-20600</v>
       </c>
       <c r="E101" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -2988,20 +3236,23 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>99500</v>
+        <v>788900</v>
       </c>
       <c r="E102" s="3">
-        <v>3100</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+        <v>101600</v>
+      </c>
+      <c r="F102" s="3">
+        <v>3200</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/YSG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YSG_YR_FIN.xlsx
@@ -715,13 +715,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>816400</v>
+        <v>805800</v>
       </c>
       <c r="E8" s="3">
-        <v>472900</v>
+        <v>466700</v>
       </c>
       <c r="F8" s="3">
-        <v>99100</v>
+        <v>97800</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -745,13 +745,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>288300</v>
+        <v>284600</v>
       </c>
       <c r="E9" s="3">
-        <v>172200</v>
+        <v>169900</v>
       </c>
       <c r="F9" s="3">
-        <v>36200</v>
+        <v>35700</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -775,13 +775,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>528100</v>
+        <v>521200</v>
       </c>
       <c r="E10" s="3">
-        <v>300700</v>
+        <v>296800</v>
       </c>
       <c r="F10" s="3">
-        <v>62900</v>
+        <v>62100</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -819,7 +819,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>10400</v>
+        <v>10200</v>
       </c>
       <c r="E12" s="3">
         <v>3600</v>
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1235000</v>
+        <v>1218900</v>
       </c>
       <c r="E17" s="3">
-        <v>450500</v>
+        <v>444600</v>
       </c>
       <c r="F17" s="3">
-        <v>104300</v>
+        <v>103000</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-418500</v>
+        <v>-413100</v>
       </c>
       <c r="E18" s="3">
-        <v>22400</v>
+        <v>22100</v>
       </c>
       <c r="F18" s="3">
-        <v>-5200</v>
+        <v>-5100</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-406200</v>
+        <v>-400900</v>
       </c>
       <c r="E21" s="3">
-        <v>25200</v>
+        <v>24800</v>
       </c>
       <c r="F21" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1114,10 +1114,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-418300</v>
+        <v>-412900</v>
       </c>
       <c r="E23" s="3">
-        <v>23000</v>
+        <v>22700</v>
       </c>
       <c r="F23" s="3">
         <v>-5600</v>
@@ -1147,7 +1147,7 @@
         <v>1100</v>
       </c>
       <c r="E24" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="F24" s="3">
         <v>600</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-419400</v>
+        <v>-414000</v>
       </c>
       <c r="E26" s="3">
-        <v>11800</v>
+        <v>11600</v>
       </c>
       <c r="F26" s="3">
-        <v>-6300</v>
+        <v>-6200</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,10 +1234,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-621600</v>
+        <v>-613500</v>
       </c>
       <c r="E27" s="3">
-        <v>-7000</v>
+        <v>-6900</v>
       </c>
       <c r="F27" s="3">
         <v>-7300</v>
@@ -1414,10 +1414,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-621600</v>
+        <v>-613500</v>
       </c>
       <c r="E33" s="3">
-        <v>-7000</v>
+        <v>-6900</v>
       </c>
       <c r="F33" s="3">
         <v>-7300</v>
@@ -1474,10 +1474,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-621600</v>
+        <v>-613500</v>
       </c>
       <c r="E35" s="3">
-        <v>-7000</v>
+        <v>-6900</v>
       </c>
       <c r="F35" s="3">
         <v>-7300</v>
@@ -1567,10 +1567,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>893500</v>
+        <v>881800</v>
       </c>
       <c r="E41" s="3">
-        <v>105600</v>
+        <v>104200</v>
       </c>
       <c r="F41" s="3">
         <v>3900</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>82100</v>
+        <v>81000</v>
       </c>
       <c r="E43" s="3">
-        <v>45700</v>
+        <v>45100</v>
       </c>
       <c r="F43" s="3">
-        <v>24300</v>
+        <v>24000</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1657,13 +1657,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>96200</v>
+        <v>95000</v>
       </c>
       <c r="E44" s="3">
-        <v>78600</v>
+        <v>77600</v>
       </c>
       <c r="F44" s="3">
-        <v>13600</v>
+        <v>13500</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>34100</v>
+        <v>33600</v>
       </c>
       <c r="E45" s="3">
-        <v>13800</v>
+        <v>13600</v>
       </c>
       <c r="F45" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1105900</v>
+        <v>1091500</v>
       </c>
       <c r="E46" s="3">
-        <v>245200</v>
+        <v>242000</v>
       </c>
       <c r="F46" s="3">
-        <v>44900</v>
+        <v>44300</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>128200</v>
+        <v>126600</v>
       </c>
       <c r="E48" s="3">
-        <v>58200</v>
+        <v>57400</v>
       </c>
       <c r="F48" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1807,10 +1807,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>32700</v>
+        <v>32300</v>
       </c>
       <c r="E49" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="F49" s="3">
         <v>200</v>
@@ -1897,10 +1897,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>23800</v>
+        <v>23500</v>
       </c>
       <c r="E52" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="F52" s="3">
         <v>2000</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1296100</v>
+        <v>1279200</v>
       </c>
       <c r="E54" s="3">
-        <v>313600</v>
+        <v>309500</v>
       </c>
       <c r="F54" s="3">
-        <v>51200</v>
+        <v>50500</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>72800</v>
+        <v>71900</v>
       </c>
       <c r="E57" s="3">
-        <v>62500</v>
+        <v>61700</v>
       </c>
       <c r="F57" s="3">
-        <v>14100</v>
+        <v>13900</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>103600</v>
+        <v>102200</v>
       </c>
       <c r="E59" s="3">
-        <v>56600</v>
+        <v>55900</v>
       </c>
       <c r="F59" s="3">
-        <v>14700</v>
+        <v>14500</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>176400</v>
+        <v>174100</v>
       </c>
       <c r="E60" s="3">
-        <v>119100</v>
+        <v>117500</v>
       </c>
       <c r="F60" s="3">
-        <v>29200</v>
+        <v>28800</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2165,10 +2165,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>48900</v>
+        <v>48300</v>
       </c>
       <c r="E62" s="3">
-        <v>27000</v>
+        <v>26600</v>
       </c>
       <c r="F62" s="3">
         <v>1800</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>227700</v>
+        <v>224700</v>
       </c>
       <c r="E66" s="3">
-        <v>146000</v>
+        <v>144100</v>
       </c>
       <c r="F66" s="3">
-        <v>31000</v>
+        <v>30600</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2392,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>176300</v>
+        <v>174000</v>
       </c>
       <c r="F70" s="3">
-        <v>29300</v>
+        <v>28900</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-658400</v>
+        <v>-649800</v>
       </c>
       <c r="E72" s="3">
-        <v>-11000</v>
+        <v>-10800</v>
       </c>
       <c r="F72" s="3">
-        <v>-9400</v>
+        <v>-9200</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1068400</v>
+        <v>1054500</v>
       </c>
       <c r="E76" s="3">
-        <v>-8700</v>
+        <v>-8600</v>
       </c>
       <c r="F76" s="3">
-        <v>-9100</v>
+        <v>-9000</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,10 +2664,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-621600</v>
+        <v>-613500</v>
       </c>
       <c r="E81" s="3">
-        <v>-7000</v>
+        <v>-6900</v>
       </c>
       <c r="F81" s="3">
         <v>-7300</v>
@@ -2708,10 +2708,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12200</v>
+        <v>12000</v>
       </c>
       <c r="E83" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-153400</v>
+        <v>-151400</v>
       </c>
       <c r="E89" s="3">
         <v>-1000</v>
       </c>
       <c r="F89" s="3">
-        <v>-15000</v>
+        <v>-14800</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2932,10 +2932,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-35200</v>
+        <v>-34700</v>
       </c>
       <c r="E91" s="3">
-        <v>-16600</v>
+        <v>-16400</v>
       </c>
       <c r="F91" s="3">
         <v>-600</v>
@@ -3022,10 +3022,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-79400</v>
+        <v>-78300</v>
       </c>
       <c r="E94" s="3">
-        <v>-23100</v>
+        <v>-22800</v>
       </c>
       <c r="F94" s="3">
         <v>-1200</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1042300</v>
+        <v>1028700</v>
       </c>
       <c r="E100" s="3">
-        <v>124100</v>
+        <v>122400</v>
       </c>
       <c r="F100" s="3">
-        <v>19300</v>
+        <v>19000</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3216,10 +3216,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-20600</v>
+        <v>-20300</v>
       </c>
       <c r="E101" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F101" s="3">
         <v>100</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>788900</v>
+        <v>778600</v>
       </c>
       <c r="E102" s="3">
-        <v>101600</v>
+        <v>100300</v>
       </c>
       <c r="F102" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/YSG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YSG_YR_FIN.xlsx
@@ -715,13 +715,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>805800</v>
+        <v>819300</v>
       </c>
       <c r="E8" s="3">
-        <v>466700</v>
+        <v>474600</v>
       </c>
       <c r="F8" s="3">
-        <v>97800</v>
+        <v>99500</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -745,13 +745,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>284600</v>
+        <v>289400</v>
       </c>
       <c r="E9" s="3">
-        <v>169900</v>
+        <v>172800</v>
       </c>
       <c r="F9" s="3">
-        <v>35700</v>
+        <v>36300</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -775,13 +775,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>521200</v>
+        <v>529900</v>
       </c>
       <c r="E10" s="3">
-        <v>296800</v>
+        <v>301800</v>
       </c>
       <c r="F10" s="3">
-        <v>62100</v>
+        <v>63100</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -819,7 +819,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>10200</v>
+        <v>10400</v>
       </c>
       <c r="E12" s="3">
         <v>3600</v>
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1218900</v>
+        <v>1239300</v>
       </c>
       <c r="E17" s="3">
-        <v>444600</v>
+        <v>452100</v>
       </c>
       <c r="F17" s="3">
-        <v>103000</v>
+        <v>104700</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-413100</v>
+        <v>-420000</v>
       </c>
       <c r="E18" s="3">
-        <v>22100</v>
+        <v>22500</v>
       </c>
       <c r="F18" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-400900</v>
+        <v>-407600</v>
       </c>
       <c r="E21" s="3">
-        <v>24800</v>
+        <v>25200</v>
       </c>
       <c r="F21" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-412900</v>
+        <v>-419800</v>
       </c>
       <c r="E23" s="3">
-        <v>22700</v>
+        <v>23100</v>
       </c>
       <c r="F23" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1147,7 +1147,7 @@
         <v>1100</v>
       </c>
       <c r="E24" s="3">
-        <v>11100</v>
+        <v>11300</v>
       </c>
       <c r="F24" s="3">
         <v>600</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-414000</v>
+        <v>-420900</v>
       </c>
       <c r="E26" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="F26" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-613500</v>
+        <v>-623800</v>
       </c>
       <c r="E27" s="3">
-        <v>-6900</v>
+        <v>-7100</v>
       </c>
       <c r="F27" s="3">
-        <v>-7300</v>
+        <v>-7400</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-613500</v>
+        <v>-623800</v>
       </c>
       <c r="E33" s="3">
-        <v>-6900</v>
+        <v>-7100</v>
       </c>
       <c r="F33" s="3">
-        <v>-7300</v>
+        <v>-7400</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-613500</v>
+        <v>-623800</v>
       </c>
       <c r="E35" s="3">
-        <v>-6900</v>
+        <v>-7100</v>
       </c>
       <c r="F35" s="3">
-        <v>-7300</v>
+        <v>-7400</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,10 +1567,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>881800</v>
+        <v>896600</v>
       </c>
       <c r="E41" s="3">
-        <v>104200</v>
+        <v>105900</v>
       </c>
       <c r="F41" s="3">
         <v>3900</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>81000</v>
+        <v>82400</v>
       </c>
       <c r="E43" s="3">
-        <v>45100</v>
+        <v>45900</v>
       </c>
       <c r="F43" s="3">
-        <v>24000</v>
+        <v>24400</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1657,13 +1657,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>95000</v>
+        <v>96600</v>
       </c>
       <c r="E44" s="3">
-        <v>77600</v>
+        <v>78900</v>
       </c>
       <c r="F44" s="3">
-        <v>13500</v>
+        <v>13700</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33600</v>
+        <v>34200</v>
       </c>
       <c r="E45" s="3">
-        <v>13600</v>
+        <v>13800</v>
       </c>
       <c r="F45" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1091500</v>
+        <v>1109800</v>
       </c>
       <c r="E46" s="3">
-        <v>242000</v>
+        <v>246100</v>
       </c>
       <c r="F46" s="3">
-        <v>44300</v>
+        <v>45100</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1747,7 +1747,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>126600</v>
+        <v>128700</v>
       </c>
       <c r="E48" s="3">
-        <v>57400</v>
+        <v>58400</v>
       </c>
       <c r="F48" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1807,10 +1807,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>32300</v>
+        <v>32800</v>
       </c>
       <c r="E49" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="F49" s="3">
         <v>200</v>
@@ -1897,10 +1897,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>23500</v>
+        <v>23900</v>
       </c>
       <c r="E52" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="F52" s="3">
         <v>2000</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1279200</v>
+        <v>1300700</v>
       </c>
       <c r="E54" s="3">
-        <v>309500</v>
+        <v>314700</v>
       </c>
       <c r="F54" s="3">
-        <v>50500</v>
+        <v>51400</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>71900</v>
+        <v>73100</v>
       </c>
       <c r="E57" s="3">
-        <v>61700</v>
+        <v>62700</v>
       </c>
       <c r="F57" s="3">
-        <v>13900</v>
+        <v>14100</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>102200</v>
+        <v>104000</v>
       </c>
       <c r="E59" s="3">
-        <v>55900</v>
+        <v>56800</v>
       </c>
       <c r="F59" s="3">
-        <v>14500</v>
+        <v>14700</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>174100</v>
+        <v>177000</v>
       </c>
       <c r="E60" s="3">
-        <v>117500</v>
+        <v>119500</v>
       </c>
       <c r="F60" s="3">
-        <v>28800</v>
+        <v>29300</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2165,10 +2165,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>48300</v>
+        <v>49100</v>
       </c>
       <c r="E62" s="3">
-        <v>26600</v>
+        <v>27100</v>
       </c>
       <c r="F62" s="3">
         <v>1800</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>224700</v>
+        <v>228500</v>
       </c>
       <c r="E66" s="3">
-        <v>144100</v>
+        <v>146600</v>
       </c>
       <c r="F66" s="3">
-        <v>30600</v>
+        <v>31100</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2392,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>174000</v>
+        <v>176900</v>
       </c>
       <c r="F70" s="3">
-        <v>28900</v>
+        <v>29400</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-649800</v>
+        <v>-660700</v>
       </c>
       <c r="E72" s="3">
-        <v>-10800</v>
+        <v>-11000</v>
       </c>
       <c r="F72" s="3">
-        <v>-9200</v>
+        <v>-9400</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1054500</v>
+        <v>1072200</v>
       </c>
       <c r="E76" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="F76" s="3">
-        <v>-9000</v>
+        <v>-9100</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-613500</v>
+        <v>-623800</v>
       </c>
       <c r="E81" s="3">
-        <v>-6900</v>
+        <v>-7100</v>
       </c>
       <c r="F81" s="3">
-        <v>-7300</v>
+        <v>-7400</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2708,10 +2708,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12000</v>
+        <v>12200</v>
       </c>
       <c r="E83" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-151400</v>
+        <v>-154000</v>
       </c>
       <c r="E89" s="3">
         <v>-1000</v>
       </c>
       <c r="F89" s="3">
-        <v>-14800</v>
+        <v>-15100</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2932,10 +2932,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-34700</v>
+        <v>-35300</v>
       </c>
       <c r="E91" s="3">
-        <v>-16400</v>
+        <v>-16600</v>
       </c>
       <c r="F91" s="3">
         <v>-600</v>
@@ -3022,10 +3022,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-78300</v>
+        <v>-79700</v>
       </c>
       <c r="E94" s="3">
-        <v>-22800</v>
+        <v>-23200</v>
       </c>
       <c r="F94" s="3">
         <v>-1200</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1028700</v>
+        <v>1046000</v>
       </c>
       <c r="E100" s="3">
-        <v>122400</v>
+        <v>124500</v>
       </c>
       <c r="F100" s="3">
-        <v>19000</v>
+        <v>19400</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3216,10 +3216,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-20300</v>
+        <v>-20600</v>
       </c>
       <c r="E101" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F101" s="3">
         <v>100</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>778600</v>
+        <v>791700</v>
       </c>
       <c r="E102" s="3">
-        <v>100300</v>
+        <v>102000</v>
       </c>
       <c r="F102" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/YSG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YSG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
   <si>
     <t>YSG</t>
   </si>
@@ -666,7 +666,8 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -715,13 +716,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>819300</v>
+        <v>825600</v>
       </c>
       <c r="E8" s="3">
-        <v>474600</v>
+        <v>478200</v>
       </c>
       <c r="F8" s="3">
-        <v>99500</v>
+        <v>100200</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -745,13 +746,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>289400</v>
+        <v>291600</v>
       </c>
       <c r="E9" s="3">
-        <v>172800</v>
+        <v>174100</v>
       </c>
       <c r="F9" s="3">
-        <v>36300</v>
+        <v>36600</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -775,13 +776,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>529900</v>
+        <v>534000</v>
       </c>
       <c r="E10" s="3">
-        <v>301800</v>
+        <v>304100</v>
       </c>
       <c r="F10" s="3">
-        <v>63100</v>
+        <v>63600</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -819,10 +820,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="E12" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="F12" s="3">
         <v>400</v>
@@ -950,13 +951,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1239300</v>
+        <v>1248800</v>
       </c>
       <c r="E17" s="3">
-        <v>452100</v>
+        <v>455500</v>
       </c>
       <c r="F17" s="3">
-        <v>104700</v>
+        <v>105500</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +981,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-420000</v>
+        <v>-423200</v>
       </c>
       <c r="E18" s="3">
-        <v>22500</v>
+        <v>22700</v>
       </c>
       <c r="F18" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1054,10 +1055,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-407600</v>
+        <v>-410700</v>
       </c>
       <c r="E21" s="3">
-        <v>25200</v>
+        <v>25400</v>
       </c>
       <c r="F21" s="3">
         <v>-5600</v>
@@ -1114,10 +1115,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-419800</v>
+        <v>-423000</v>
       </c>
       <c r="E23" s="3">
-        <v>23100</v>
+        <v>23200</v>
       </c>
       <c r="F23" s="3">
         <v>-5700</v>
@@ -1147,7 +1148,7 @@
         <v>1100</v>
       </c>
       <c r="E24" s="3">
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="F24" s="3">
         <v>600</v>
@@ -1204,10 +1205,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-420900</v>
+        <v>-424100</v>
       </c>
       <c r="E26" s="3">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="F26" s="3">
         <v>-6300</v>
@@ -1234,7 +1235,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-623800</v>
+        <v>-628600</v>
       </c>
       <c r="E27" s="3">
         <v>-7100</v>
@@ -1414,7 +1415,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-623800</v>
+        <v>-628600</v>
       </c>
       <c r="E33" s="3">
         <v>-7100</v>
@@ -1474,7 +1475,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-623800</v>
+        <v>-628600</v>
       </c>
       <c r="E35" s="3">
         <v>-7100</v>
@@ -1567,16 +1568,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>896600</v>
+        <v>495100</v>
       </c>
       <c r="E41" s="3">
-        <v>105900</v>
+        <v>903500</v>
       </c>
       <c r="F41" s="3">
-        <v>3900</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>106700</v>
+      </c>
+      <c r="G41" s="3">
+        <v>4000</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1596,17 +1597,17 @@
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>1600</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+      <c r="G42" s="3">
+        <v>0</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1627,16 +1628,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>82400</v>
+        <v>56100</v>
       </c>
       <c r="E43" s="3">
-        <v>45900</v>
+        <v>83000</v>
       </c>
       <c r="F43" s="3">
-        <v>24400</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>46200</v>
+      </c>
+      <c r="G43" s="3">
+        <v>24600</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1657,16 +1658,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>96600</v>
+        <v>109800</v>
       </c>
       <c r="E44" s="3">
-        <v>78900</v>
+        <v>97300</v>
       </c>
       <c r="F44" s="3">
-        <v>13700</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+        <v>79500</v>
+      </c>
+      <c r="G44" s="3">
+        <v>13800</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1687,16 +1688,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>34200</v>
+        <v>57800</v>
       </c>
       <c r="E45" s="3">
-        <v>13800</v>
+        <v>34500</v>
       </c>
       <c r="F45" s="3">
+        <v>13900</v>
+      </c>
+      <c r="G45" s="3">
         <v>3100</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1717,16 +1718,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1109800</v>
+        <v>718700</v>
       </c>
       <c r="E46" s="3">
-        <v>246100</v>
+        <v>1118300</v>
       </c>
       <c r="F46" s="3">
-        <v>45100</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>248000</v>
+      </c>
+      <c r="G46" s="3">
+        <v>45400</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1747,16 +1748,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E47" s="3">
         <v>5500</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>500</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1777,16 +1778,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>128700</v>
+        <v>105400</v>
       </c>
       <c r="E48" s="3">
-        <v>58400</v>
+        <v>129700</v>
       </c>
       <c r="F48" s="3">
+        <v>58800</v>
+      </c>
+      <c r="G48" s="3">
         <v>3700</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1807,16 +1808,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>32800</v>
+        <v>254800</v>
       </c>
       <c r="E49" s="3">
+        <v>33100</v>
+      </c>
+      <c r="F49" s="3">
         <v>4800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>200</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1897,16 +1898,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>23900</v>
+        <v>13000</v>
       </c>
       <c r="E52" s="3">
+        <v>24100</v>
+      </c>
+      <c r="F52" s="3">
         <v>5500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2000</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1957,16 +1958,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1300700</v>
+        <v>1147200</v>
       </c>
       <c r="E54" s="3">
-        <v>314700</v>
+        <v>1310600</v>
       </c>
       <c r="F54" s="3">
-        <v>51400</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>317100</v>
+      </c>
+      <c r="G54" s="3">
+        <v>51800</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2015,16 +2016,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>73100</v>
+        <v>38000</v>
       </c>
       <c r="E57" s="3">
-        <v>62700</v>
+        <v>73600</v>
       </c>
       <c r="F57" s="3">
-        <v>14100</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>63200</v>
+      </c>
+      <c r="G57" s="3">
+        <v>14200</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2047,14 +2048,14 @@
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>500</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2075,16 +2076,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>104000</v>
+        <v>100500</v>
       </c>
       <c r="E59" s="3">
-        <v>56800</v>
+        <v>104700</v>
       </c>
       <c r="F59" s="3">
-        <v>14700</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>57200</v>
+      </c>
+      <c r="G59" s="3">
+        <v>14900</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2105,16 +2106,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>177000</v>
+        <v>138400</v>
       </c>
       <c r="E60" s="3">
-        <v>119500</v>
+        <v>178400</v>
       </c>
       <c r="F60" s="3">
-        <v>29300</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>120400</v>
+      </c>
+      <c r="G60" s="3">
+        <v>29500</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2165,16 +2166,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>49100</v>
+        <v>61000</v>
       </c>
       <c r="E62" s="3">
-        <v>27100</v>
+        <v>49500</v>
       </c>
       <c r="F62" s="3">
+        <v>27300</v>
+      </c>
+      <c r="G62" s="3">
         <v>1800</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2285,16 +2286,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>228500</v>
+        <v>254400</v>
       </c>
       <c r="E66" s="3">
-        <v>146600</v>
+        <v>230200</v>
       </c>
       <c r="F66" s="3">
-        <v>31100</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>147700</v>
+      </c>
+      <c r="G66" s="3">
+        <v>31400</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2392,13 +2393,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>176900</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>29400</v>
+        <v>178300</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>29600</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2449,16 +2450,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-660700</v>
+        <v>-908800</v>
       </c>
       <c r="E72" s="3">
-        <v>-11000</v>
+        <v>-665800</v>
       </c>
       <c r="F72" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-11100</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-9500</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2569,16 +2570,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1072200</v>
+        <v>892800</v>
       </c>
       <c r="E76" s="3">
-        <v>-8700</v>
+        <v>1080400</v>
       </c>
       <c r="F76" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>-8800</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-9200</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2664,7 +2665,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-623800</v>
+        <v>-628600</v>
       </c>
       <c r="E81" s="3">
         <v>-7100</v>
@@ -2708,7 +2709,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12200</v>
+        <v>12300</v>
       </c>
       <c r="E83" s="3">
         <v>2200</v>
@@ -2888,13 +2889,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-154000</v>
+        <v>-155100</v>
       </c>
       <c r="E89" s="3">
         <v>-1000</v>
       </c>
       <c r="F89" s="3">
-        <v>-15100</v>
+        <v>-15200</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2932,10 +2933,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-35300</v>
+        <v>-35600</v>
       </c>
       <c r="E91" s="3">
-        <v>-16600</v>
+        <v>-16800</v>
       </c>
       <c r="F91" s="3">
         <v>-600</v>
@@ -3022,10 +3023,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-79700</v>
+        <v>-80300</v>
       </c>
       <c r="E94" s="3">
-        <v>-23200</v>
+        <v>-23400</v>
       </c>
       <c r="F94" s="3">
         <v>-1200</v>
@@ -3186,13 +3187,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1046000</v>
+        <v>1054000</v>
       </c>
       <c r="E100" s="3">
-        <v>124500</v>
+        <v>125500</v>
       </c>
       <c r="F100" s="3">
-        <v>19400</v>
+        <v>19500</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3216,7 +3217,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-20600</v>
+        <v>-20800</v>
       </c>
       <c r="E101" s="3">
         <v>1700</v>
@@ -3246,10 +3247,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>791700</v>
+        <v>797800</v>
       </c>
       <c r="E102" s="3">
-        <v>102000</v>
+        <v>102800</v>
       </c>
       <c r="F102" s="3">
         <v>3200</v>

--- a/AAII_Financials/Yearly/YSG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YSG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
   <si>
     <t>YSG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,38 +665,37 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -709,23 +708,26 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>825600</v>
+        <v>860600</v>
       </c>
       <c r="E8" s="3">
-        <v>478200</v>
+        <v>771200</v>
       </c>
       <c r="F8" s="3">
-        <v>100200</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>446700</v>
+      </c>
+      <c r="G8" s="3">
+        <v>93600</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -739,23 +741,26 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>291600</v>
+        <v>286100</v>
       </c>
       <c r="E9" s="3">
-        <v>174100</v>
+        <v>272400</v>
       </c>
       <c r="F9" s="3">
-        <v>36600</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>162600</v>
+      </c>
+      <c r="G9" s="3">
+        <v>34200</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -769,23 +774,26 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>534000</v>
+        <v>574500</v>
       </c>
       <c r="E10" s="3">
-        <v>304100</v>
+        <v>498800</v>
       </c>
       <c r="F10" s="3">
-        <v>63600</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>284100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>59400</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -799,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,23 +825,24 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>10500</v>
+        <v>20900</v>
       </c>
       <c r="E12" s="3">
-        <v>3700</v>
+        <v>9800</v>
       </c>
       <c r="F12" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -843,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,17 +888,20 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3300</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -900,12 +918,15 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -933,9 +954,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -945,22 +969,23 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1248800</v>
+        <v>1100100</v>
       </c>
       <c r="E17" s="3">
-        <v>455500</v>
+        <v>1166500</v>
       </c>
       <c r="F17" s="3">
-        <v>105500</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>425500</v>
+      </c>
+      <c r="G17" s="3">
+        <v>98500</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -974,23 +999,26 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-423200</v>
+        <v>-239600</v>
       </c>
       <c r="E18" s="3">
-        <v>22700</v>
+        <v>-395300</v>
       </c>
       <c r="F18" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>21200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-4900</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1004,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,23 +1050,24 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>600</v>
-      </c>
       <c r="F20" s="3">
+        <v>500</v>
+      </c>
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1048,23 +1080,26 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-410700</v>
+        <v>-201100</v>
       </c>
       <c r="E21" s="3">
-        <v>25400</v>
+        <v>-383500</v>
       </c>
       <c r="F21" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>23800</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-5200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1078,9 +1113,12 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1108,23 +1146,26 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-423000</v>
+        <v>-228100</v>
       </c>
       <c r="E23" s="3">
-        <v>23200</v>
+        <v>-395100</v>
       </c>
       <c r="F23" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>21700</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-5300</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1138,24 +1179,27 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1100</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
-        <v>11400</v>
+        <v>1000</v>
       </c>
       <c r="F24" s="3">
+        <v>10600</v>
+      </c>
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1168,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1198,23 +1245,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-424100</v>
+        <v>-228000</v>
       </c>
       <c r="E26" s="3">
-        <v>11900</v>
+        <v>-396200</v>
       </c>
       <c r="F26" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>11100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-5900</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1228,23 +1278,26 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-628600</v>
+        <v>-227000</v>
       </c>
       <c r="E27" s="3">
-        <v>-7100</v>
+        <v>-587100</v>
       </c>
       <c r="F27" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>-6600</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-6900</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1258,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1318,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1378,24 +1443,27 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>-600</v>
-      </c>
       <c r="F32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1408,23 +1476,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-628600</v>
+        <v>-227000</v>
       </c>
       <c r="E33" s="3">
-        <v>-7100</v>
+        <v>-587100</v>
       </c>
       <c r="F33" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>-6600</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-6900</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1438,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,23 +1542,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-628600</v>
+        <v>-227000</v>
       </c>
       <c r="E35" s="3">
-        <v>-7100</v>
+        <v>-587100</v>
       </c>
       <c r="F35" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>-6600</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-6900</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1498,29 +1575,32 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1533,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1562,22 +1646,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>495100</v>
+        <v>462400</v>
       </c>
       <c r="E41" s="3">
-        <v>903500</v>
+        <v>843900</v>
       </c>
       <c r="F41" s="3">
-        <v>106700</v>
+        <v>99700</v>
       </c>
       <c r="G41" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1591,9 +1676,12 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1604,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -1621,23 +1709,26 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>56100</v>
+        <v>66600</v>
       </c>
       <c r="E43" s="3">
-        <v>83000</v>
+        <v>77500</v>
       </c>
       <c r="F43" s="3">
-        <v>46200</v>
+        <v>43200</v>
       </c>
       <c r="G43" s="3">
-        <v>24600</v>
+        <v>23000</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1651,23 +1742,26 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>109800</v>
+        <v>102500</v>
       </c>
       <c r="E44" s="3">
-        <v>97300</v>
+        <v>90900</v>
       </c>
       <c r="F44" s="3">
-        <v>79500</v>
+        <v>74300</v>
       </c>
       <c r="G44" s="3">
-        <v>13800</v>
+        <v>12900</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1681,23 +1775,26 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>57800</v>
+        <v>39800</v>
       </c>
       <c r="E45" s="3">
-        <v>34500</v>
+        <v>32200</v>
       </c>
       <c r="F45" s="3">
-        <v>13900</v>
+        <v>13000</v>
       </c>
       <c r="G45" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1711,23 +1808,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>718700</v>
+        <v>671400</v>
       </c>
       <c r="E46" s="3">
-        <v>1118300</v>
+        <v>1044600</v>
       </c>
       <c r="F46" s="3">
-        <v>248000</v>
+        <v>231600</v>
       </c>
       <c r="G46" s="3">
-        <v>45400</v>
+        <v>42400</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1741,23 +1841,26 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>55300</v>
+        <v>51600</v>
       </c>
       <c r="E47" s="3">
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1771,23 +1874,26 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>105400</v>
+        <v>98500</v>
       </c>
       <c r="E48" s="3">
-        <v>129700</v>
+        <v>121100</v>
       </c>
       <c r="F48" s="3">
-        <v>58800</v>
+        <v>54900</v>
       </c>
       <c r="G48" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1801,20 +1907,23 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>254800</v>
+        <v>238000</v>
       </c>
       <c r="E49" s="3">
-        <v>33100</v>
+        <v>30900</v>
       </c>
       <c r="F49" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="G49" s="3">
         <v>200</v>
@@ -1831,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1861,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1891,23 +2006,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13000</v>
+        <v>12100</v>
       </c>
       <c r="E52" s="3">
-        <v>24100</v>
+        <v>22500</v>
       </c>
       <c r="F52" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="G52" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1921,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1951,23 +2072,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1147200</v>
+        <v>1071600</v>
       </c>
       <c r="E54" s="3">
-        <v>1310600</v>
+        <v>1224200</v>
       </c>
       <c r="F54" s="3">
-        <v>317100</v>
+        <v>296200</v>
       </c>
       <c r="G54" s="3">
-        <v>51800</v>
+        <v>48400</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1981,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1996,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2010,22 +2138,23 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>38000</v>
+        <v>35500</v>
       </c>
       <c r="E57" s="3">
-        <v>73600</v>
+        <v>68800</v>
       </c>
       <c r="F57" s="3">
-        <v>63200</v>
+        <v>59000</v>
       </c>
       <c r="G57" s="3">
-        <v>14200</v>
+        <v>13300</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2039,9 +2168,12 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2055,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2069,23 +2201,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100500</v>
+        <v>93800</v>
       </c>
       <c r="E59" s="3">
-        <v>104700</v>
+        <v>97800</v>
       </c>
       <c r="F59" s="3">
-        <v>57200</v>
+        <v>53500</v>
       </c>
       <c r="G59" s="3">
-        <v>14900</v>
+        <v>13900</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2099,23 +2234,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>138400</v>
+        <v>129300</v>
       </c>
       <c r="E60" s="3">
-        <v>178400</v>
+        <v>166600</v>
       </c>
       <c r="F60" s="3">
-        <v>120400</v>
+        <v>112500</v>
       </c>
       <c r="G60" s="3">
-        <v>29500</v>
+        <v>27600</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2129,9 +2267,12 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2159,23 +2300,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>61000</v>
+        <v>57000</v>
       </c>
       <c r="E62" s="3">
-        <v>49500</v>
+        <v>46200</v>
       </c>
       <c r="F62" s="3">
-        <v>27300</v>
+        <v>25500</v>
       </c>
       <c r="G62" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2189,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2249,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2279,23 +2432,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>254400</v>
+        <v>237700</v>
       </c>
       <c r="E66" s="3">
-        <v>230200</v>
+        <v>215000</v>
       </c>
       <c r="F66" s="3">
-        <v>147700</v>
+        <v>137900</v>
       </c>
       <c r="G66" s="3">
-        <v>31400</v>
+        <v>29300</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2309,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2324,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2353,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2383,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2396,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>178300</v>
+        <v>166500</v>
       </c>
       <c r="G70" s="3">
-        <v>29600</v>
+        <v>27700</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2413,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2443,23 +2612,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-908800</v>
+        <v>-848900</v>
       </c>
       <c r="E72" s="3">
-        <v>-665800</v>
+        <v>-621900</v>
       </c>
       <c r="F72" s="3">
-        <v>-11100</v>
+        <v>-10400</v>
       </c>
       <c r="G72" s="3">
-        <v>-9500</v>
+        <v>-8800</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2473,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2503,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2563,23 +2744,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>892800</v>
+        <v>833900</v>
       </c>
       <c r="E76" s="3">
-        <v>1080400</v>
+        <v>1009200</v>
       </c>
       <c r="F76" s="3">
-        <v>-8800</v>
+        <v>-8200</v>
       </c>
       <c r="G76" s="3">
-        <v>-9200</v>
+        <v>-8600</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2593,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2623,29 +2810,32 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2658,23 +2848,26 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-628600</v>
+        <v>-227000</v>
       </c>
       <c r="E81" s="3">
-        <v>-7100</v>
+        <v>-587100</v>
       </c>
       <c r="F81" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>-6600</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-6900</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2688,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2703,23 +2899,24 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12300</v>
+        <v>26700</v>
       </c>
       <c r="E83" s="3">
-        <v>2200</v>
+        <v>11500</v>
       </c>
       <c r="F83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2762,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2792,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2822,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2852,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2882,23 +3094,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-155100</v>
+        <v>-150400</v>
       </c>
       <c r="E89" s="3">
-        <v>-1000</v>
+        <v>-144900</v>
       </c>
       <c r="F89" s="3">
-        <v>-15200</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>-900</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-14200</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2912,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,23 +3145,24 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-35600</v>
+        <v>-20800</v>
       </c>
       <c r="E91" s="3">
-        <v>-16800</v>
+        <v>-33200</v>
       </c>
       <c r="F91" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2956,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2986,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3016,24 +3241,27 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-80300</v>
+        <v>-218700</v>
       </c>
       <c r="E94" s="3">
-        <v>-23400</v>
+        <v>-75000</v>
       </c>
       <c r="F94" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1200</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3046,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3061,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3090,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3120,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3150,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3180,23 +3421,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1054000</v>
+        <v>-300</v>
       </c>
       <c r="E100" s="3">
-        <v>125500</v>
+        <v>984500</v>
       </c>
       <c r="F100" s="3">
-        <v>19500</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>117200</v>
+      </c>
+      <c r="G100" s="3">
+        <v>18200</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3210,24 +3454,27 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-20800</v>
+        <v>-13100</v>
       </c>
       <c r="E101" s="3">
-        <v>1700</v>
+        <v>-19400</v>
       </c>
       <c r="F101" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3240,23 +3487,26 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>797800</v>
+        <v>-382500</v>
       </c>
       <c r="E102" s="3">
-        <v>102800</v>
+        <v>745200</v>
       </c>
       <c r="F102" s="3">
-        <v>3200</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>96000</v>
+      </c>
+      <c r="G102" s="3">
+        <v>3000</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3270,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/YSG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YSG_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>860600</v>
+        <v>852800</v>
       </c>
       <c r="E8" s="3">
-        <v>771200</v>
+        <v>764200</v>
       </c>
       <c r="F8" s="3">
-        <v>446700</v>
+        <v>442600</v>
       </c>
       <c r="G8" s="3">
-        <v>93600</v>
+        <v>92800</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>286100</v>
+        <v>283500</v>
       </c>
       <c r="E9" s="3">
-        <v>272400</v>
+        <v>269900</v>
       </c>
       <c r="F9" s="3">
-        <v>162600</v>
+        <v>161100</v>
       </c>
       <c r="G9" s="3">
-        <v>34200</v>
+        <v>33900</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>574500</v>
+        <v>569300</v>
       </c>
       <c r="E10" s="3">
-        <v>498800</v>
+        <v>494300</v>
       </c>
       <c r="F10" s="3">
-        <v>284100</v>
+        <v>281500</v>
       </c>
       <c r="G10" s="3">
-        <v>59400</v>
+        <v>58900</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -832,10 +832,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>20900</v>
+        <v>20700</v>
       </c>
       <c r="E12" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="F12" s="3">
         <v>3400</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1100100</v>
+        <v>1090200</v>
       </c>
       <c r="E17" s="3">
-        <v>1166500</v>
+        <v>1156000</v>
       </c>
       <c r="F17" s="3">
-        <v>425500</v>
+        <v>421600</v>
       </c>
       <c r="G17" s="3">
-        <v>98500</v>
+        <v>97600</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,13 +1009,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-239600</v>
+        <v>-237400</v>
       </c>
       <c r="E18" s="3">
-        <v>-395300</v>
+        <v>-391800</v>
       </c>
       <c r="F18" s="3">
-        <v>21200</v>
+        <v>21000</v>
       </c>
       <c r="G18" s="3">
         <v>-4900</v>
@@ -1057,7 +1057,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>11400</v>
+        <v>11300</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
@@ -1090,13 +1090,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-201100</v>
+        <v>-199600</v>
       </c>
       <c r="E21" s="3">
-        <v>-383500</v>
+        <v>-380200</v>
       </c>
       <c r="F21" s="3">
-        <v>23800</v>
+        <v>23500</v>
       </c>
       <c r="G21" s="3">
         <v>-5200</v>
@@ -1156,13 +1156,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-228100</v>
+        <v>-226000</v>
       </c>
       <c r="E23" s="3">
-        <v>-395100</v>
+        <v>-391600</v>
       </c>
       <c r="F23" s="3">
-        <v>21700</v>
+        <v>21500</v>
       </c>
       <c r="G23" s="3">
         <v>-5300</v>
@@ -1195,7 +1195,7 @@
         <v>1000</v>
       </c>
       <c r="F24" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="G24" s="3">
         <v>600</v>
@@ -1255,13 +1255,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-228000</v>
+        <v>-225900</v>
       </c>
       <c r="E26" s="3">
-        <v>-396200</v>
+        <v>-392600</v>
       </c>
       <c r="F26" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="G26" s="3">
         <v>-5900</v>
@@ -1288,10 +1288,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-227000</v>
+        <v>-225000</v>
       </c>
       <c r="E27" s="3">
-        <v>-587100</v>
+        <v>-581800</v>
       </c>
       <c r="F27" s="3">
         <v>-6600</v>
@@ -1453,7 +1453,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-11400</v>
+        <v>-11300</v>
       </c>
       <c r="E32" s="3">
         <v>-200</v>
@@ -1486,10 +1486,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-227000</v>
+        <v>-225000</v>
       </c>
       <c r="E33" s="3">
-        <v>-587100</v>
+        <v>-581800</v>
       </c>
       <c r="F33" s="3">
         <v>-6600</v>
@@ -1552,10 +1552,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-227000</v>
+        <v>-225000</v>
       </c>
       <c r="E35" s="3">
-        <v>-587100</v>
+        <v>-581800</v>
       </c>
       <c r="F35" s="3">
         <v>-6600</v>
@@ -1653,13 +1653,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>462400</v>
+        <v>458200</v>
       </c>
       <c r="E41" s="3">
-        <v>843900</v>
+        <v>836300</v>
       </c>
       <c r="F41" s="3">
-        <v>99700</v>
+        <v>98800</v>
       </c>
       <c r="G41" s="3">
         <v>3700</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>66600</v>
+        <v>66000</v>
       </c>
       <c r="E43" s="3">
-        <v>77500</v>
+        <v>76800</v>
       </c>
       <c r="F43" s="3">
-        <v>43200</v>
+        <v>42800</v>
       </c>
       <c r="G43" s="3">
-        <v>23000</v>
+        <v>22800</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1752,16 +1752,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>102500</v>
+        <v>101600</v>
       </c>
       <c r="E44" s="3">
-        <v>90900</v>
+        <v>90100</v>
       </c>
       <c r="F44" s="3">
-        <v>74300</v>
+        <v>73600</v>
       </c>
       <c r="G44" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1785,13 +1785,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>39800</v>
+        <v>39500</v>
       </c>
       <c r="E45" s="3">
-        <v>32200</v>
+        <v>31900</v>
       </c>
       <c r="F45" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="G45" s="3">
         <v>2900</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>671400</v>
+        <v>665300</v>
       </c>
       <c r="E46" s="3">
-        <v>1044600</v>
+        <v>1035100</v>
       </c>
       <c r="F46" s="3">
-        <v>231600</v>
+        <v>229500</v>
       </c>
       <c r="G46" s="3">
-        <v>42400</v>
+        <v>42100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1851,7 +1851,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>51600</v>
+        <v>51200</v>
       </c>
       <c r="E47" s="3">
         <v>5100</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>98500</v>
+        <v>97600</v>
       </c>
       <c r="E48" s="3">
-        <v>121100</v>
+        <v>120000</v>
       </c>
       <c r="F48" s="3">
-        <v>54900</v>
+        <v>54400</v>
       </c>
       <c r="G48" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1917,10 +1917,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>238000</v>
+        <v>235900</v>
       </c>
       <c r="E49" s="3">
-        <v>30900</v>
+        <v>30600</v>
       </c>
       <c r="F49" s="3">
         <v>4500</v>
@@ -2016,13 +2016,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="E52" s="3">
-        <v>22500</v>
+        <v>22300</v>
       </c>
       <c r="F52" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="G52" s="3">
         <v>1900</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1071600</v>
+        <v>1061900</v>
       </c>
       <c r="E54" s="3">
-        <v>1224200</v>
+        <v>1213200</v>
       </c>
       <c r="F54" s="3">
-        <v>296200</v>
+        <v>293600</v>
       </c>
       <c r="G54" s="3">
-        <v>48400</v>
+        <v>47900</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>35500</v>
+        <v>35200</v>
       </c>
       <c r="E57" s="3">
-        <v>68800</v>
+        <v>68200</v>
       </c>
       <c r="F57" s="3">
-        <v>59000</v>
+        <v>58500</v>
       </c>
       <c r="G57" s="3">
-        <v>13300</v>
+        <v>13200</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>93800</v>
+        <v>93000</v>
       </c>
       <c r="E59" s="3">
-        <v>97800</v>
+        <v>97000</v>
       </c>
       <c r="F59" s="3">
-        <v>53500</v>
+        <v>53000</v>
       </c>
       <c r="G59" s="3">
-        <v>13900</v>
+        <v>13700</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>129300</v>
+        <v>128200</v>
       </c>
       <c r="E60" s="3">
-        <v>166600</v>
+        <v>165100</v>
       </c>
       <c r="F60" s="3">
-        <v>112500</v>
+        <v>111500</v>
       </c>
       <c r="G60" s="3">
-        <v>27600</v>
+        <v>27300</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2310,13 +2310,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>57000</v>
+        <v>56500</v>
       </c>
       <c r="E62" s="3">
-        <v>46200</v>
+        <v>45800</v>
       </c>
       <c r="F62" s="3">
-        <v>25500</v>
+        <v>25200</v>
       </c>
       <c r="G62" s="3">
         <v>1700</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>237700</v>
+        <v>235500</v>
       </c>
       <c r="E66" s="3">
-        <v>215000</v>
+        <v>213100</v>
       </c>
       <c r="F66" s="3">
-        <v>137900</v>
+        <v>136700</v>
       </c>
       <c r="G66" s="3">
-        <v>29300</v>
+        <v>29000</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2562,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>166500</v>
+        <v>165000</v>
       </c>
       <c r="G70" s="3">
-        <v>27700</v>
+        <v>27400</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2622,13 +2622,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-848900</v>
+        <v>-841300</v>
       </c>
       <c r="E72" s="3">
-        <v>-621900</v>
+        <v>-616300</v>
       </c>
       <c r="F72" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="G72" s="3">
         <v>-8800</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>833900</v>
+        <v>826400</v>
       </c>
       <c r="E76" s="3">
-        <v>1009200</v>
+        <v>1000100</v>
       </c>
       <c r="F76" s="3">
-        <v>-8200</v>
+        <v>-8100</v>
       </c>
       <c r="G76" s="3">
-        <v>-8600</v>
+        <v>-8500</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,10 +2858,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-227000</v>
+        <v>-225000</v>
       </c>
       <c r="E81" s="3">
-        <v>-587100</v>
+        <v>-581800</v>
       </c>
       <c r="F81" s="3">
         <v>-6600</v>
@@ -2906,13 +2906,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>26700</v>
+        <v>26500</v>
       </c>
       <c r="E83" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="F83" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-150400</v>
+        <v>-149000</v>
       </c>
       <c r="E89" s="3">
-        <v>-144900</v>
+        <v>-143600</v>
       </c>
       <c r="F89" s="3">
         <v>-900</v>
       </c>
       <c r="G89" s="3">
-        <v>-14200</v>
+        <v>-14000</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,13 +3152,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-20800</v>
+        <v>-20700</v>
       </c>
       <c r="E91" s="3">
-        <v>-33200</v>
+        <v>-32900</v>
       </c>
       <c r="F91" s="3">
-        <v>-15700</v>
+        <v>-15500</v>
       </c>
       <c r="G91" s="3">
         <v>-600</v>
@@ -3251,13 +3251,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-218700</v>
+        <v>-216700</v>
       </c>
       <c r="E94" s="3">
-        <v>-75000</v>
+        <v>-74300</v>
       </c>
       <c r="F94" s="3">
-        <v>-21800</v>
+        <v>-21600</v>
       </c>
       <c r="G94" s="3">
         <v>-1200</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E100" s="3">
-        <v>984500</v>
+        <v>975600</v>
       </c>
       <c r="F100" s="3">
-        <v>117200</v>
+        <v>116100</v>
       </c>
       <c r="G100" s="3">
-        <v>18200</v>
+        <v>18100</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3464,10 +3464,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-13100</v>
+        <v>-13000</v>
       </c>
       <c r="E101" s="3">
-        <v>-19400</v>
+        <v>-19300</v>
       </c>
       <c r="F101" s="3">
         <v>1600</v>
@@ -3497,13 +3497,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-382500</v>
+        <v>-379000</v>
       </c>
       <c r="E102" s="3">
-        <v>745200</v>
+        <v>738400</v>
       </c>
       <c r="F102" s="3">
-        <v>96000</v>
+        <v>95100</v>
       </c>
       <c r="G102" s="3">
         <v>3000</v>

--- a/AAII_Financials/Yearly/YSG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YSG_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>852800</v>
+        <v>812900</v>
       </c>
       <c r="E8" s="3">
-        <v>764200</v>
+        <v>728500</v>
       </c>
       <c r="F8" s="3">
-        <v>442600</v>
+        <v>421900</v>
       </c>
       <c r="G8" s="3">
-        <v>92800</v>
+        <v>88400</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>283500</v>
+        <v>270200</v>
       </c>
       <c r="E9" s="3">
-        <v>269900</v>
+        <v>257300</v>
       </c>
       <c r="F9" s="3">
-        <v>161100</v>
+        <v>153600</v>
       </c>
       <c r="G9" s="3">
-        <v>33900</v>
+        <v>32300</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>569300</v>
+        <v>542700</v>
       </c>
       <c r="E10" s="3">
-        <v>494300</v>
+        <v>471200</v>
       </c>
       <c r="F10" s="3">
-        <v>281500</v>
+        <v>268300</v>
       </c>
       <c r="G10" s="3">
-        <v>58900</v>
+        <v>56100</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -832,13 +832,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>20700</v>
+        <v>19800</v>
       </c>
       <c r="E12" s="3">
-        <v>9700</v>
+        <v>9300</v>
       </c>
       <c r="F12" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="G12" s="3">
         <v>400</v>
@@ -901,7 +901,7 @@
         <v>200</v>
       </c>
       <c r="E14" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1090200</v>
+        <v>1039200</v>
       </c>
       <c r="E17" s="3">
-        <v>1156000</v>
+        <v>1101900</v>
       </c>
       <c r="F17" s="3">
-        <v>421600</v>
+        <v>401900</v>
       </c>
       <c r="G17" s="3">
-        <v>97600</v>
+        <v>93100</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-237400</v>
+        <v>-226300</v>
       </c>
       <c r="E18" s="3">
-        <v>-391800</v>
+        <v>-373400</v>
       </c>
       <c r="F18" s="3">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="G18" s="3">
-        <v>-4900</v>
+        <v>-4600</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,7 +1057,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>11300</v>
+        <v>10800</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-199600</v>
+        <v>-190400</v>
       </c>
       <c r="E21" s="3">
-        <v>-380200</v>
+        <v>-362500</v>
       </c>
       <c r="F21" s="3">
-        <v>23500</v>
+        <v>22400</v>
       </c>
       <c r="G21" s="3">
-        <v>-5200</v>
+        <v>-5000</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-226000</v>
+        <v>-215500</v>
       </c>
       <c r="E23" s="3">
-        <v>-391600</v>
+        <v>-373300</v>
       </c>
       <c r="F23" s="3">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="G23" s="3">
-        <v>-5300</v>
+        <v>-5000</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1195,7 +1195,7 @@
         <v>1000</v>
       </c>
       <c r="F24" s="3">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="G24" s="3">
         <v>600</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-225900</v>
+        <v>-215300</v>
       </c>
       <c r="E26" s="3">
-        <v>-392600</v>
+        <v>-374200</v>
       </c>
       <c r="F26" s="3">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="G26" s="3">
-        <v>-5900</v>
+        <v>-5600</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-225000</v>
+        <v>-214500</v>
       </c>
       <c r="E27" s="3">
-        <v>-581800</v>
+        <v>-554600</v>
       </c>
       <c r="F27" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-6600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-6900</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,7 +1453,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-11300</v>
+        <v>-10800</v>
       </c>
       <c r="E32" s="3">
         <v>-200</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-225000</v>
+        <v>-214500</v>
       </c>
       <c r="E33" s="3">
-        <v>-581800</v>
+        <v>-554600</v>
       </c>
       <c r="F33" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-6600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-6900</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-225000</v>
+        <v>-214500</v>
       </c>
       <c r="E35" s="3">
-        <v>-581800</v>
+        <v>-554600</v>
       </c>
       <c r="F35" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-6600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-6900</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>458200</v>
+        <v>436800</v>
       </c>
       <c r="E41" s="3">
-        <v>836300</v>
+        <v>797200</v>
       </c>
       <c r="F41" s="3">
-        <v>98800</v>
+        <v>94200</v>
       </c>
       <c r="G41" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>66000</v>
+        <v>62900</v>
       </c>
       <c r="E43" s="3">
-        <v>76800</v>
+        <v>73200</v>
       </c>
       <c r="F43" s="3">
-        <v>42800</v>
+        <v>40800</v>
       </c>
       <c r="G43" s="3">
-        <v>22800</v>
+        <v>21700</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1752,16 +1752,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>101600</v>
+        <v>96800</v>
       </c>
       <c r="E44" s="3">
-        <v>90100</v>
+        <v>85900</v>
       </c>
       <c r="F44" s="3">
-        <v>73600</v>
+        <v>70200</v>
       </c>
       <c r="G44" s="3">
-        <v>12800</v>
+        <v>12200</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>39500</v>
+        <v>37600</v>
       </c>
       <c r="E45" s="3">
-        <v>31900</v>
+        <v>30400</v>
       </c>
       <c r="F45" s="3">
-        <v>12900</v>
+        <v>12300</v>
       </c>
       <c r="G45" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>665300</v>
+        <v>634200</v>
       </c>
       <c r="E46" s="3">
-        <v>1035100</v>
+        <v>986700</v>
       </c>
       <c r="F46" s="3">
-        <v>229500</v>
+        <v>218800</v>
       </c>
       <c r="G46" s="3">
-        <v>42100</v>
+        <v>40100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1851,10 +1851,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>51200</v>
+        <v>48800</v>
       </c>
       <c r="E47" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>97600</v>
+        <v>93000</v>
       </c>
       <c r="E48" s="3">
-        <v>120000</v>
+        <v>114400</v>
       </c>
       <c r="F48" s="3">
-        <v>54400</v>
+        <v>51900</v>
       </c>
       <c r="G48" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1917,13 +1917,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>235900</v>
+        <v>224800</v>
       </c>
       <c r="E49" s="3">
-        <v>30600</v>
+        <v>29200</v>
       </c>
       <c r="F49" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="G49" s="3">
         <v>200</v>
@@ -2016,16 +2016,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12000</v>
+        <v>11400</v>
       </c>
       <c r="E52" s="3">
-        <v>22300</v>
+        <v>21200</v>
       </c>
       <c r="F52" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="G52" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1061900</v>
+        <v>1012300</v>
       </c>
       <c r="E54" s="3">
-        <v>1213200</v>
+        <v>1156400</v>
       </c>
       <c r="F54" s="3">
-        <v>293600</v>
+        <v>279800</v>
       </c>
       <c r="G54" s="3">
-        <v>47900</v>
+        <v>45700</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>35200</v>
+        <v>33500</v>
       </c>
       <c r="E57" s="3">
-        <v>68200</v>
+        <v>65000</v>
       </c>
       <c r="F57" s="3">
-        <v>58500</v>
+        <v>55800</v>
       </c>
       <c r="G57" s="3">
-        <v>13200</v>
+        <v>12600</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>93000</v>
+        <v>88600</v>
       </c>
       <c r="E59" s="3">
-        <v>97000</v>
+        <v>92400</v>
       </c>
       <c r="F59" s="3">
-        <v>53000</v>
+        <v>50500</v>
       </c>
       <c r="G59" s="3">
-        <v>13700</v>
+        <v>13100</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>128200</v>
+        <v>122200</v>
       </c>
       <c r="E60" s="3">
-        <v>165100</v>
+        <v>157400</v>
       </c>
       <c r="F60" s="3">
-        <v>111500</v>
+        <v>106300</v>
       </c>
       <c r="G60" s="3">
-        <v>27300</v>
+        <v>26100</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>56500</v>
+        <v>53900</v>
       </c>
       <c r="E62" s="3">
-        <v>45800</v>
+        <v>43600</v>
       </c>
       <c r="F62" s="3">
-        <v>25200</v>
+        <v>24100</v>
       </c>
       <c r="G62" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>235500</v>
+        <v>224500</v>
       </c>
       <c r="E66" s="3">
-        <v>213100</v>
+        <v>203100</v>
       </c>
       <c r="F66" s="3">
-        <v>136700</v>
+        <v>130300</v>
       </c>
       <c r="G66" s="3">
-        <v>29000</v>
+        <v>27700</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2562,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>165000</v>
+        <v>157300</v>
       </c>
       <c r="G70" s="3">
-        <v>27400</v>
+        <v>26200</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-841300</v>
+        <v>-801900</v>
       </c>
       <c r="E72" s="3">
-        <v>-616300</v>
+        <v>-587400</v>
       </c>
       <c r="F72" s="3">
-        <v>-10300</v>
+        <v>-9800</v>
       </c>
       <c r="G72" s="3">
-        <v>-8800</v>
+        <v>-8300</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>826400</v>
+        <v>787800</v>
       </c>
       <c r="E76" s="3">
-        <v>1000100</v>
+        <v>953300</v>
       </c>
       <c r="F76" s="3">
-        <v>-8100</v>
+        <v>-7800</v>
       </c>
       <c r="G76" s="3">
-        <v>-8500</v>
+        <v>-8200</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-225000</v>
+        <v>-214500</v>
       </c>
       <c r="E81" s="3">
-        <v>-581800</v>
+        <v>-554600</v>
       </c>
       <c r="F81" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-6600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-6900</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2906,13 +2906,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>26500</v>
+        <v>25200</v>
       </c>
       <c r="E83" s="3">
-        <v>11400</v>
+        <v>10900</v>
       </c>
       <c r="F83" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-149000</v>
+        <v>-142000</v>
       </c>
       <c r="E89" s="3">
-        <v>-143600</v>
+        <v>-136900</v>
       </c>
       <c r="F89" s="3">
         <v>-900</v>
       </c>
       <c r="G89" s="3">
-        <v>-14000</v>
+        <v>-13400</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-20700</v>
+        <v>-19700</v>
       </c>
       <c r="E91" s="3">
-        <v>-32900</v>
+        <v>-31400</v>
       </c>
       <c r="F91" s="3">
-        <v>-15500</v>
+        <v>-14800</v>
       </c>
       <c r="G91" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-216700</v>
+        <v>-206600</v>
       </c>
       <c r="E94" s="3">
-        <v>-74300</v>
+        <v>-70800</v>
       </c>
       <c r="F94" s="3">
-        <v>-21600</v>
+        <v>-20600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3434,13 +3434,13 @@
         <v>-200</v>
       </c>
       <c r="E100" s="3">
-        <v>975600</v>
+        <v>930000</v>
       </c>
       <c r="F100" s="3">
-        <v>116100</v>
+        <v>110700</v>
       </c>
       <c r="G100" s="3">
-        <v>18100</v>
+        <v>17200</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3464,13 +3464,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-13000</v>
+        <v>-12400</v>
       </c>
       <c r="E101" s="3">
-        <v>-19300</v>
+        <v>-18400</v>
       </c>
       <c r="F101" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G101" s="3">
         <v>100</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-379000</v>
+        <v>-361300</v>
       </c>
       <c r="E102" s="3">
-        <v>738400</v>
+        <v>703900</v>
       </c>
       <c r="F102" s="3">
-        <v>95100</v>
+        <v>90700</v>
       </c>
       <c r="G102" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/YSG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YSG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
   <si>
     <t>YSG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,26 +711,29 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>812900</v>
+        <v>532300</v>
       </c>
       <c r="E8" s="3">
-        <v>728500</v>
+        <v>838700</v>
       </c>
       <c r="F8" s="3">
-        <v>421900</v>
+        <v>751600</v>
       </c>
       <c r="G8" s="3">
-        <v>88400</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>435300</v>
+      </c>
+      <c r="H8" s="3">
+        <v>91200</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -744,26 +747,29 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>270200</v>
+        <v>170500</v>
       </c>
       <c r="E9" s="3">
-        <v>257300</v>
+        <v>278800</v>
       </c>
       <c r="F9" s="3">
-        <v>153600</v>
+        <v>265400</v>
       </c>
       <c r="G9" s="3">
-        <v>32300</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>158500</v>
+      </c>
+      <c r="H9" s="3">
+        <v>33300</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -777,26 +783,29 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>542700</v>
+        <v>361700</v>
       </c>
       <c r="E10" s="3">
-        <v>471200</v>
+        <v>559900</v>
       </c>
       <c r="F10" s="3">
-        <v>268300</v>
+        <v>486100</v>
       </c>
       <c r="G10" s="3">
-        <v>56100</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>276900</v>
+      </c>
+      <c r="H10" s="3">
+        <v>57900</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,26 +838,27 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>19800</v>
+        <v>18200</v>
       </c>
       <c r="E12" s="3">
-        <v>9300</v>
+        <v>20400</v>
       </c>
       <c r="F12" s="3">
-        <v>3200</v>
+        <v>9600</v>
       </c>
       <c r="G12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,20 +907,23 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>700</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
-        <v>2900</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3">
+        <v>3000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -921,12 +940,15 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,9 +979,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,25 +995,26 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>1039200</v>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>1101900</v>
+        <v>1072200</v>
       </c>
       <c r="F17" s="3">
-        <v>401900</v>
+        <v>1136900</v>
       </c>
       <c r="G17" s="3">
-        <v>93100</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>414700</v>
+      </c>
+      <c r="H17" s="3">
+        <v>96000</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1002,26 +1028,29 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-226300</v>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-373400</v>
+        <v>-233500</v>
       </c>
       <c r="F18" s="3">
-        <v>20000</v>
+        <v>-385300</v>
       </c>
       <c r="G18" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>20600</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-4800</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,26 +1083,27 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>10800</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1083,23 +1116,26 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-190400</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-362500</v>
+        <v>-211100</v>
       </c>
       <c r="F21" s="3">
-        <v>22400</v>
+        <v>-383100</v>
       </c>
       <c r="G21" s="3">
-        <v>-5000</v>
+        <v>21200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1116,9 +1152,12 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1149,26 +1188,29 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-215500</v>
+        <v>-117600</v>
       </c>
       <c r="E23" s="3">
-        <v>-373300</v>
+        <v>-222300</v>
       </c>
       <c r="F23" s="3">
-        <v>20500</v>
+        <v>-385100</v>
       </c>
       <c r="G23" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>21200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-5200</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1182,27 +1224,30 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
-        <v>10000</v>
-      </c>
       <c r="G24" s="3">
+        <v>10300</v>
+      </c>
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,26 +1296,29 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-215300</v>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>-374200</v>
+        <v>-222200</v>
       </c>
       <c r="F26" s="3">
-        <v>10500</v>
+        <v>-386100</v>
       </c>
       <c r="G26" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>10800</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-5800</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1281,26 +1332,29 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-214500</v>
+      <c r="D27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>-554600</v>
+        <v>-221300</v>
       </c>
       <c r="F27" s="3">
-        <v>-6300</v>
+        <v>-572200</v>
       </c>
       <c r="G27" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>-6500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-6800</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,27 +1512,30 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-10800</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1479,26 +1548,29 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-214500</v>
+      <c r="D33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E33" s="3">
-        <v>-554600</v>
+        <v>-221300</v>
       </c>
       <c r="F33" s="3">
-        <v>-6300</v>
+        <v>-572200</v>
       </c>
       <c r="G33" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>-6500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-6800</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,26 +1620,29 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-214500</v>
+      <c r="D35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E35" s="3">
-        <v>-554600</v>
+        <v>-221300</v>
       </c>
       <c r="F35" s="3">
-        <v>-6300</v>
+        <v>-572200</v>
       </c>
       <c r="G35" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>-6500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-6800</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1578,32 +1656,35 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,25 +1732,26 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>436800</v>
+        <v>217300</v>
       </c>
       <c r="E41" s="3">
-        <v>797200</v>
+        <v>450700</v>
       </c>
       <c r="F41" s="3">
-        <v>94200</v>
+        <v>822500</v>
       </c>
       <c r="G41" s="3">
-        <v>3500</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>97200</v>
+      </c>
+      <c r="H41" s="3">
+        <v>3600</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1679,26 +1765,29 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="D42" s="3">
+        <v>154100</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>1400</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+      <c r="H42" s="3">
+        <v>0</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1712,26 +1801,29 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>62900</v>
+        <v>800</v>
       </c>
       <c r="E43" s="3">
-        <v>73200</v>
+        <v>64900</v>
       </c>
       <c r="F43" s="3">
-        <v>40800</v>
+        <v>75600</v>
       </c>
       <c r="G43" s="3">
-        <v>21700</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>42100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>22400</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1745,26 +1837,29 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>96800</v>
+        <v>60800</v>
       </c>
       <c r="E44" s="3">
-        <v>85900</v>
+        <v>99900</v>
       </c>
       <c r="F44" s="3">
-        <v>70200</v>
+        <v>88600</v>
       </c>
       <c r="G44" s="3">
-        <v>12200</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+        <v>72400</v>
+      </c>
+      <c r="H44" s="3">
+        <v>12600</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1778,26 +1873,29 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>37600</v>
+        <v>48000</v>
       </c>
       <c r="E45" s="3">
-        <v>30400</v>
+        <v>38800</v>
       </c>
       <c r="F45" s="3">
-        <v>12300</v>
+        <v>31400</v>
       </c>
       <c r="G45" s="3">
-        <v>2700</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>12700</v>
+      </c>
+      <c r="H45" s="3">
+        <v>2800</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1811,26 +1909,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>634200</v>
+        <v>503900</v>
       </c>
       <c r="E46" s="3">
-        <v>986700</v>
+        <v>654300</v>
       </c>
       <c r="F46" s="3">
-        <v>218800</v>
+        <v>1018100</v>
       </c>
       <c r="G46" s="3">
-        <v>40100</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>225700</v>
+      </c>
+      <c r="H46" s="3">
+        <v>41400</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1844,27 +1945,30 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>48800</v>
+        <v>72200</v>
       </c>
       <c r="E47" s="3">
-        <v>4900</v>
+        <v>50300</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>400</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,26 +1981,29 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>93000</v>
+        <v>30000</v>
       </c>
       <c r="E48" s="3">
-        <v>114400</v>
+        <v>96000</v>
       </c>
       <c r="F48" s="3">
-        <v>51900</v>
+        <v>118100</v>
       </c>
       <c r="G48" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>53500</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3400</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1910,27 +2017,30 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>224800</v>
+        <v>222200</v>
       </c>
       <c r="E49" s="3">
-        <v>29200</v>
+        <v>232000</v>
       </c>
       <c r="F49" s="3">
-        <v>4300</v>
+        <v>30100</v>
       </c>
       <c r="G49" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H49" s="3">
         <v>200</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,27 +2125,30 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11400</v>
+        <v>7900</v>
       </c>
       <c r="E52" s="3">
-        <v>21200</v>
+        <v>11800</v>
       </c>
       <c r="F52" s="3">
-        <v>4900</v>
+        <v>21900</v>
       </c>
       <c r="G52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H52" s="3">
         <v>1800</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,26 +2197,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1012300</v>
+        <v>842000</v>
       </c>
       <c r="E54" s="3">
-        <v>1156400</v>
+        <v>1044400</v>
       </c>
       <c r="F54" s="3">
-        <v>279800</v>
+        <v>1193200</v>
       </c>
       <c r="G54" s="3">
-        <v>45700</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>288700</v>
+      </c>
+      <c r="H54" s="3">
+        <v>47100</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,25 +2268,26 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>33500</v>
+        <v>17200</v>
       </c>
       <c r="E57" s="3">
-        <v>65000</v>
+        <v>34600</v>
       </c>
       <c r="F57" s="3">
-        <v>55800</v>
+        <v>67000</v>
       </c>
       <c r="G57" s="3">
-        <v>12600</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>57500</v>
+      </c>
+      <c r="H57" s="3">
+        <v>13000</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2171,9 +2301,12 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2183,15 +2316,15 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2204,26 +2337,29 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>88600</v>
+        <v>67300</v>
       </c>
       <c r="E59" s="3">
-        <v>92400</v>
+        <v>91500</v>
       </c>
       <c r="F59" s="3">
-        <v>50500</v>
+        <v>95400</v>
       </c>
       <c r="G59" s="3">
-        <v>13100</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>52100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>13500</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2237,26 +2373,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>122200</v>
+        <v>84500</v>
       </c>
       <c r="E60" s="3">
-        <v>157400</v>
+        <v>126000</v>
       </c>
       <c r="F60" s="3">
-        <v>106300</v>
+        <v>162400</v>
       </c>
       <c r="G60" s="3">
-        <v>26100</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>109600</v>
+      </c>
+      <c r="H60" s="3">
+        <v>26900</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2270,9 +2409,12 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2303,26 +2445,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>53900</v>
+        <v>30400</v>
       </c>
       <c r="E62" s="3">
-        <v>43600</v>
+        <v>55600</v>
       </c>
       <c r="F62" s="3">
-        <v>24100</v>
+        <v>45000</v>
       </c>
       <c r="G62" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>24800</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1700</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,26 +2589,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>224500</v>
+        <v>164200</v>
       </c>
       <c r="E66" s="3">
-        <v>203100</v>
+        <v>231600</v>
       </c>
       <c r="F66" s="3">
-        <v>130300</v>
+        <v>209600</v>
       </c>
       <c r="G66" s="3">
-        <v>27700</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>134400</v>
+      </c>
+      <c r="H66" s="3">
+        <v>28600</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2562,13 +2729,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>157300</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>26200</v>
+        <v>162300</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,26 +2785,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-801900</v>
+        <v>-944500</v>
       </c>
       <c r="E72" s="3">
-        <v>-587400</v>
+        <v>-827400</v>
       </c>
       <c r="F72" s="3">
-        <v>-9800</v>
+        <v>-606100</v>
       </c>
       <c r="G72" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-10100</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-8600</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,26 +2929,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>787800</v>
+        <v>677800</v>
       </c>
       <c r="E76" s="3">
-        <v>953300</v>
+        <v>812800</v>
       </c>
       <c r="F76" s="3">
-        <v>-7800</v>
+        <v>983600</v>
       </c>
       <c r="G76" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>-8000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-8400</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,32 +3001,35 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,26 +3042,29 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-214500</v>
+      <c r="D81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E81" s="3">
-        <v>-554600</v>
+        <v>-221300</v>
       </c>
       <c r="F81" s="3">
-        <v>-6300</v>
+        <v>-572200</v>
       </c>
       <c r="G81" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>-6500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-6800</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,19 +3097,20 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>25200</v>
+        <v>26000</v>
       </c>
       <c r="E83" s="3">
-        <v>10900</v>
+        <v>11200</v>
       </c>
       <c r="F83" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,23 +3310,26 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-142000</v>
+        <v>-146600</v>
       </c>
       <c r="E89" s="3">
-        <v>-136900</v>
+        <v>-141200</v>
       </c>
       <c r="F89" s="3">
         <v>-900</v>
       </c>
       <c r="G89" s="3">
-        <v>-13400</v>
+        <v>-13800</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,19 +3365,20 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-19700</v>
+        <v>-20300</v>
       </c>
       <c r="E91" s="3">
-        <v>-31400</v>
+        <v>-32400</v>
       </c>
       <c r="F91" s="3">
-        <v>-14800</v>
+        <v>-15300</v>
       </c>
       <c r="G91" s="3">
         <v>-500</v>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,20 +3470,23 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-206600</v>
+        <v>-213200</v>
       </c>
       <c r="E94" s="3">
-        <v>-70800</v>
+        <v>-73100</v>
       </c>
       <c r="F94" s="3">
-        <v>-20600</v>
+        <v>-21300</v>
       </c>
       <c r="G94" s="3">
         <v>-1100</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,9 +3666,12 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3434,13 +3679,13 @@
         <v>-200</v>
       </c>
       <c r="E100" s="3">
-        <v>930000</v>
+        <v>959500</v>
       </c>
       <c r="F100" s="3">
-        <v>110700</v>
+        <v>114200</v>
       </c>
       <c r="G100" s="3">
-        <v>17200</v>
+        <v>17800</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3457,17 +3702,20 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-12400</v>
+        <v>-12800</v>
       </c>
       <c r="E101" s="3">
-        <v>-18400</v>
+        <v>-18900</v>
       </c>
       <c r="F101" s="3">
         <v>1500</v>
@@ -3490,23 +3738,26 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-361300</v>
+        <v>-372700</v>
       </c>
       <c r="E102" s="3">
-        <v>703900</v>
+        <v>726300</v>
       </c>
       <c r="F102" s="3">
-        <v>90700</v>
+        <v>93600</v>
       </c>
       <c r="G102" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/YSG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YSG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
   <si>
     <t>YSG</t>
   </si>
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>532300</v>
+        <v>526800</v>
       </c>
       <c r="E8" s="3">
-        <v>838700</v>
+        <v>830200</v>
       </c>
       <c r="F8" s="3">
-        <v>751600</v>
+        <v>743900</v>
       </c>
       <c r="G8" s="3">
-        <v>435300</v>
+        <v>430900</v>
       </c>
       <c r="H8" s="3">
-        <v>91200</v>
+        <v>90300</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,19 +757,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>170500</v>
+        <v>168800</v>
       </c>
       <c r="E9" s="3">
-        <v>278800</v>
+        <v>275900</v>
       </c>
       <c r="F9" s="3">
-        <v>265400</v>
+        <v>262700</v>
       </c>
       <c r="G9" s="3">
-        <v>158500</v>
+        <v>156900</v>
       </c>
       <c r="H9" s="3">
-        <v>33300</v>
+        <v>33000</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>361700</v>
+        <v>358000</v>
       </c>
       <c r="E10" s="3">
-        <v>559900</v>
+        <v>554200</v>
       </c>
       <c r="F10" s="3">
-        <v>486100</v>
+        <v>481200</v>
       </c>
       <c r="G10" s="3">
-        <v>276900</v>
+        <v>274000</v>
       </c>
       <c r="H10" s="3">
-        <v>57900</v>
+        <v>57300</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -845,13 +845,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>18200</v>
+        <v>18000</v>
       </c>
       <c r="E12" s="3">
-        <v>20400</v>
+        <v>20200</v>
       </c>
       <c r="F12" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="G12" s="3">
         <v>3300</v>
@@ -1001,20 +1001,20 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>659600</v>
       </c>
       <c r="E17" s="3">
-        <v>1072200</v>
+        <v>1061200</v>
       </c>
       <c r="F17" s="3">
-        <v>1136900</v>
+        <v>1125200</v>
       </c>
       <c r="G17" s="3">
-        <v>414700</v>
+        <v>410400</v>
       </c>
       <c r="H17" s="3">
-        <v>96000</v>
+        <v>95000</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1037,20 +1037,20 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-132800</v>
       </c>
       <c r="E18" s="3">
-        <v>-233500</v>
+        <v>-231100</v>
       </c>
       <c r="F18" s="3">
-        <v>-385300</v>
+        <v>-381300</v>
       </c>
       <c r="G18" s="3">
-        <v>20600</v>
+        <v>20400</v>
       </c>
       <c r="H18" s="3">
-        <v>-4800</v>
+        <v>-4700</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1089,11 +1089,11 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>16400</v>
       </c>
       <c r="E20" s="3">
-        <v>11200</v>
+        <v>11000</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
@@ -1125,20 +1125,20 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-91900</v>
       </c>
       <c r="E21" s="3">
-        <v>-211100</v>
+        <v>-194100</v>
       </c>
       <c r="F21" s="3">
-        <v>-383100</v>
+        <v>-370000</v>
       </c>
       <c r="G21" s="3">
-        <v>21200</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>22900</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-5100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-117600</v>
+        <v>-116400</v>
       </c>
       <c r="E23" s="3">
-        <v>-222300</v>
+        <v>-220000</v>
       </c>
       <c r="F23" s="3">
-        <v>-385100</v>
+        <v>-381200</v>
       </c>
       <c r="G23" s="3">
-        <v>21200</v>
+        <v>20900</v>
       </c>
       <c r="H23" s="3">
-        <v>-5200</v>
+        <v>-5100</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1243,7 +1243,7 @@
         <v>1000</v>
       </c>
       <c r="G24" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="H24" s="3">
         <v>600</v>
@@ -1305,20 +1305,20 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-116800</v>
       </c>
       <c r="E26" s="3">
-        <v>-222200</v>
+        <v>-219900</v>
       </c>
       <c r="F26" s="3">
-        <v>-386100</v>
+        <v>-382200</v>
       </c>
       <c r="G26" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="H26" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1341,20 +1341,20 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-115900</v>
       </c>
       <c r="E27" s="3">
-        <v>-221300</v>
+        <v>-219000</v>
       </c>
       <c r="F27" s="3">
-        <v>-572200</v>
+        <v>-566400</v>
       </c>
       <c r="G27" s="3">
-        <v>-6500</v>
+        <v>-6400</v>
       </c>
       <c r="H27" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1521,11 +1521,11 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-16400</v>
       </c>
       <c r="E32" s="3">
-        <v>-11200</v>
+        <v>-11000</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
@@ -1557,20 +1557,20 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-115900</v>
       </c>
       <c r="E33" s="3">
-        <v>-221300</v>
+        <v>-219000</v>
       </c>
       <c r="F33" s="3">
-        <v>-572200</v>
+        <v>-566400</v>
       </c>
       <c r="G33" s="3">
-        <v>-6500</v>
+        <v>-6400</v>
       </c>
       <c r="H33" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1629,20 +1629,20 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-115900</v>
       </c>
       <c r="E35" s="3">
-        <v>-221300</v>
+        <v>-219000</v>
       </c>
       <c r="F35" s="3">
-        <v>-572200</v>
+        <v>-566400</v>
       </c>
       <c r="G35" s="3">
-        <v>-6500</v>
+        <v>-6400</v>
       </c>
       <c r="H35" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,16 +1739,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>217300</v>
+        <v>215100</v>
       </c>
       <c r="E41" s="3">
-        <v>450700</v>
+        <v>446100</v>
       </c>
       <c r="F41" s="3">
-        <v>822500</v>
+        <v>814100</v>
       </c>
       <c r="G41" s="3">
-        <v>97200</v>
+        <v>96200</v>
       </c>
       <c r="H41" s="3">
         <v>3600</v>
@@ -1775,7 +1775,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>154100</v>
+        <v>152500</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>800</v>
+        <v>40000</v>
       </c>
       <c r="E43" s="3">
-        <v>64900</v>
+        <v>64200</v>
       </c>
       <c r="F43" s="3">
-        <v>75600</v>
+        <v>74800</v>
       </c>
       <c r="G43" s="3">
-        <v>42100</v>
+        <v>41600</v>
       </c>
       <c r="H43" s="3">
-        <v>22400</v>
+        <v>22200</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1847,19 +1847,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>60800</v>
+        <v>60200</v>
       </c>
       <c r="E44" s="3">
-        <v>99900</v>
+        <v>98900</v>
       </c>
       <c r="F44" s="3">
-        <v>88600</v>
+        <v>87700</v>
       </c>
       <c r="G44" s="3">
-        <v>72400</v>
+        <v>71700</v>
       </c>
       <c r="H44" s="3">
-        <v>12600</v>
+        <v>12400</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1883,16 +1883,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>48000</v>
+        <v>31000</v>
       </c>
       <c r="E45" s="3">
-        <v>38800</v>
+        <v>38400</v>
       </c>
       <c r="F45" s="3">
-        <v>31400</v>
+        <v>31100</v>
       </c>
       <c r="G45" s="3">
-        <v>12700</v>
+        <v>12500</v>
       </c>
       <c r="H45" s="3">
         <v>2800</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>503900</v>
+        <v>498700</v>
       </c>
       <c r="E46" s="3">
-        <v>654300</v>
+        <v>647600</v>
       </c>
       <c r="F46" s="3">
-        <v>1018100</v>
+        <v>1007600</v>
       </c>
       <c r="G46" s="3">
-        <v>225700</v>
+        <v>223400</v>
       </c>
       <c r="H46" s="3">
-        <v>41400</v>
+        <v>40900</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1955,10 +1955,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>72200</v>
+        <v>71400</v>
       </c>
       <c r="E47" s="3">
-        <v>50300</v>
+        <v>49800</v>
       </c>
       <c r="F47" s="3">
         <v>5000</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>30000</v>
+        <v>29700</v>
       </c>
       <c r="E48" s="3">
-        <v>96000</v>
+        <v>95000</v>
       </c>
       <c r="F48" s="3">
-        <v>118100</v>
+        <v>116800</v>
       </c>
       <c r="G48" s="3">
-        <v>53500</v>
+        <v>53000</v>
       </c>
       <c r="H48" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2027,13 +2027,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>222200</v>
+        <v>219900</v>
       </c>
       <c r="E49" s="3">
-        <v>232000</v>
+        <v>229600</v>
       </c>
       <c r="F49" s="3">
-        <v>30100</v>
+        <v>29800</v>
       </c>
       <c r="G49" s="3">
         <v>4400</v>
@@ -2135,13 +2135,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7900</v>
+        <v>13700</v>
       </c>
       <c r="E52" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="F52" s="3">
-        <v>21900</v>
+        <v>21700</v>
       </c>
       <c r="G52" s="3">
         <v>5000</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>842000</v>
+        <v>833400</v>
       </c>
       <c r="E54" s="3">
-        <v>1044400</v>
+        <v>1033700</v>
       </c>
       <c r="F54" s="3">
-        <v>1193200</v>
+        <v>1180900</v>
       </c>
       <c r="G54" s="3">
-        <v>288700</v>
+        <v>285800</v>
       </c>
       <c r="H54" s="3">
-        <v>47100</v>
+        <v>46700</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17200</v>
+        <v>17000</v>
       </c>
       <c r="E57" s="3">
-        <v>34600</v>
+        <v>34200</v>
       </c>
       <c r="F57" s="3">
-        <v>67000</v>
+        <v>66300</v>
       </c>
       <c r="G57" s="3">
-        <v>57500</v>
+        <v>56900</v>
       </c>
       <c r="H57" s="3">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>67300</v>
+        <v>66600</v>
       </c>
       <c r="E59" s="3">
-        <v>91500</v>
+        <v>90500</v>
       </c>
       <c r="F59" s="3">
-        <v>95400</v>
+        <v>94400</v>
       </c>
       <c r="G59" s="3">
-        <v>52100</v>
+        <v>51600</v>
       </c>
       <c r="H59" s="3">
-        <v>13500</v>
+        <v>13400</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>84500</v>
+        <v>83600</v>
       </c>
       <c r="E60" s="3">
-        <v>126000</v>
+        <v>124700</v>
       </c>
       <c r="F60" s="3">
-        <v>162400</v>
+        <v>160700</v>
       </c>
       <c r="G60" s="3">
-        <v>109600</v>
+        <v>108500</v>
       </c>
       <c r="H60" s="3">
-        <v>26900</v>
+        <v>26600</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2455,19 +2455,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>30400</v>
+        <v>30100</v>
       </c>
       <c r="E62" s="3">
-        <v>55600</v>
+        <v>55000</v>
       </c>
       <c r="F62" s="3">
-        <v>45000</v>
+        <v>44600</v>
       </c>
       <c r="G62" s="3">
-        <v>24800</v>
+        <v>24600</v>
       </c>
       <c r="H62" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>164200</v>
+        <v>162500</v>
       </c>
       <c r="E66" s="3">
-        <v>231600</v>
+        <v>229300</v>
       </c>
       <c r="F66" s="3">
-        <v>209600</v>
+        <v>207400</v>
       </c>
       <c r="G66" s="3">
-        <v>134400</v>
+        <v>133100</v>
       </c>
       <c r="H66" s="3">
-        <v>28600</v>
+        <v>28300</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>162300</v>
+        <v>160600</v>
       </c>
       <c r="H70" s="3">
-        <v>27000</v>
+        <v>26700</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-944500</v>
+        <v>-934800</v>
       </c>
       <c r="E72" s="3">
-        <v>-827400</v>
+        <v>-818900</v>
       </c>
       <c r="F72" s="3">
-        <v>-606100</v>
+        <v>-599900</v>
       </c>
       <c r="G72" s="3">
-        <v>-10100</v>
+        <v>-10000</v>
       </c>
       <c r="H72" s="3">
-        <v>-8600</v>
+        <v>-8500</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>677800</v>
+        <v>670900</v>
       </c>
       <c r="E76" s="3">
-        <v>812800</v>
+        <v>804500</v>
       </c>
       <c r="F76" s="3">
-        <v>983600</v>
+        <v>973500</v>
       </c>
       <c r="G76" s="3">
-        <v>-8000</v>
+        <v>-7900</v>
       </c>
       <c r="H76" s="3">
-        <v>-8400</v>
+        <v>-8300</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3051,20 +3051,20 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-115900</v>
       </c>
       <c r="E81" s="3">
-        <v>-221300</v>
+        <v>-219000</v>
       </c>
       <c r="F81" s="3">
-        <v>-572200</v>
+        <v>-566400</v>
       </c>
       <c r="G81" s="3">
-        <v>-6500</v>
+        <v>-6400</v>
       </c>
       <c r="H81" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>26000</v>
+        <v>24300</v>
       </c>
       <c r="E83" s="3">
-        <v>11200</v>
+        <v>25800</v>
       </c>
       <c r="F83" s="3">
+        <v>11100</v>
+      </c>
+      <c r="G83" s="3">
         <v>2000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>100</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-146600</v>
+        <v>19400</v>
       </c>
       <c r="E89" s="3">
-        <v>-141200</v>
+        <v>-145100</v>
       </c>
       <c r="F89" s="3">
+        <v>-139800</v>
+      </c>
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
-        <v>-13800</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="H89" s="3">
+        <v>-13700</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3372,19 +3372,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-20300</v>
+        <v>-7200</v>
       </c>
       <c r="E91" s="3">
-        <v>-32400</v>
+        <v>-20100</v>
       </c>
       <c r="F91" s="3">
-        <v>-15300</v>
+        <v>-32100</v>
       </c>
       <c r="G91" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-500</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3480,19 +3480,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-213200</v>
+        <v>-164200</v>
       </c>
       <c r="E94" s="3">
-        <v>-73100</v>
+        <v>-211000</v>
       </c>
       <c r="F94" s="3">
-        <v>-21300</v>
+        <v>-72300</v>
       </c>
       <c r="G94" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="H94" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
-        <v>959500</v>
-      </c>
       <c r="F100" s="3">
-        <v>114200</v>
+        <v>949700</v>
       </c>
       <c r="G100" s="3">
-        <v>17800</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>113000</v>
+      </c>
+      <c r="H100" s="3">
+        <v>17600</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3712,19 +3712,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-12800</v>
+        <v>12800</v>
       </c>
       <c r="E101" s="3">
-        <v>-18900</v>
+        <v>-12600</v>
       </c>
       <c r="F101" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="G101" s="3">
         <v>1500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3748,19 +3748,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-372700</v>
+        <v>-225100</v>
       </c>
       <c r="E102" s="3">
-        <v>726300</v>
+        <v>-368900</v>
       </c>
       <c r="F102" s="3">
-        <v>93600</v>
+        <v>718800</v>
       </c>
       <c r="G102" s="3">
+        <v>92600</v>
+      </c>
+      <c r="H102" s="3">
         <v>2900</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/YSG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YSG_YR_FIN.xlsx
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>526800</v>
+        <v>510600</v>
       </c>
       <c r="E8" s="3">
-        <v>830200</v>
+        <v>804600</v>
       </c>
       <c r="F8" s="3">
-        <v>743900</v>
+        <v>721000</v>
       </c>
       <c r="G8" s="3">
-        <v>430900</v>
+        <v>417600</v>
       </c>
       <c r="H8" s="3">
-        <v>90300</v>
+        <v>87500</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,19 +757,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>168800</v>
+        <v>163600</v>
       </c>
       <c r="E9" s="3">
-        <v>275900</v>
+        <v>267500</v>
       </c>
       <c r="F9" s="3">
-        <v>262700</v>
+        <v>254700</v>
       </c>
       <c r="G9" s="3">
-        <v>156900</v>
+        <v>152000</v>
       </c>
       <c r="H9" s="3">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>358000</v>
+        <v>347000</v>
       </c>
       <c r="E10" s="3">
-        <v>554200</v>
+        <v>537200</v>
       </c>
       <c r="F10" s="3">
-        <v>481200</v>
+        <v>466400</v>
       </c>
       <c r="G10" s="3">
-        <v>274000</v>
+        <v>265600</v>
       </c>
       <c r="H10" s="3">
-        <v>57300</v>
+        <v>55600</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -845,16 +845,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="E12" s="3">
-        <v>20200</v>
+        <v>19600</v>
       </c>
       <c r="F12" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="G12" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="H12" s="3">
         <v>400</v>
@@ -923,7 +923,7 @@
         <v>200</v>
       </c>
       <c r="F14" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>659600</v>
+        <v>639300</v>
       </c>
       <c r="E17" s="3">
-        <v>1061200</v>
+        <v>1028600</v>
       </c>
       <c r="F17" s="3">
-        <v>1125200</v>
+        <v>1090600</v>
       </c>
       <c r="G17" s="3">
-        <v>410400</v>
+        <v>397800</v>
       </c>
       <c r="H17" s="3">
-        <v>95000</v>
+        <v>92100</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-132800</v>
+        <v>-128700</v>
       </c>
       <c r="E18" s="3">
-        <v>-231100</v>
+        <v>-224000</v>
       </c>
       <c r="F18" s="3">
-        <v>-381300</v>
+        <v>-369600</v>
       </c>
       <c r="G18" s="3">
-        <v>20400</v>
+        <v>19800</v>
       </c>
       <c r="H18" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,10 +1090,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>16400</v>
+        <v>15900</v>
       </c>
       <c r="E20" s="3">
-        <v>11000</v>
+        <v>10700</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-91900</v>
+        <v>-89200</v>
       </c>
       <c r="E21" s="3">
-        <v>-194100</v>
+        <v>-188300</v>
       </c>
       <c r="F21" s="3">
-        <v>-370000</v>
+        <v>-358700</v>
       </c>
       <c r="G21" s="3">
-        <v>22900</v>
+        <v>22200</v>
       </c>
       <c r="H21" s="3">
-        <v>-5100</v>
+        <v>-4900</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-116400</v>
+        <v>-112800</v>
       </c>
       <c r="E23" s="3">
-        <v>-220000</v>
+        <v>-213300</v>
       </c>
       <c r="F23" s="3">
-        <v>-381200</v>
+        <v>-369400</v>
       </c>
       <c r="G23" s="3">
-        <v>20900</v>
+        <v>20300</v>
       </c>
       <c r="H23" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1243,7 +1243,7 @@
         <v>1000</v>
       </c>
       <c r="G24" s="3">
-        <v>10200</v>
+        <v>9900</v>
       </c>
       <c r="H24" s="3">
         <v>600</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-116800</v>
+        <v>-113200</v>
       </c>
       <c r="E26" s="3">
-        <v>-219900</v>
+        <v>-213200</v>
       </c>
       <c r="F26" s="3">
-        <v>-382200</v>
+        <v>-370400</v>
       </c>
       <c r="G26" s="3">
-        <v>10700</v>
+        <v>10400</v>
       </c>
       <c r="H26" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-115900</v>
+        <v>-112300</v>
       </c>
       <c r="E27" s="3">
-        <v>-219000</v>
+        <v>-212300</v>
       </c>
       <c r="F27" s="3">
-        <v>-566400</v>
+        <v>-548900</v>
       </c>
       <c r="G27" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="H27" s="3">
-        <v>-6700</v>
+        <v>-6500</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1522,10 +1522,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16400</v>
+        <v>-15900</v>
       </c>
       <c r="E32" s="3">
-        <v>-11000</v>
+        <v>-10700</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-115900</v>
+        <v>-112300</v>
       </c>
       <c r="E33" s="3">
-        <v>-219000</v>
+        <v>-212300</v>
       </c>
       <c r="F33" s="3">
-        <v>-566400</v>
+        <v>-548900</v>
       </c>
       <c r="G33" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="H33" s="3">
-        <v>-6700</v>
+        <v>-6500</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-115900</v>
+        <v>-112300</v>
       </c>
       <c r="E35" s="3">
-        <v>-219000</v>
+        <v>-212300</v>
       </c>
       <c r="F35" s="3">
-        <v>-566400</v>
+        <v>-548900</v>
       </c>
       <c r="G35" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="H35" s="3">
-        <v>-6700</v>
+        <v>-6500</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>215100</v>
+        <v>208500</v>
       </c>
       <c r="E41" s="3">
-        <v>446100</v>
+        <v>432400</v>
       </c>
       <c r="F41" s="3">
-        <v>814100</v>
+        <v>789100</v>
       </c>
       <c r="G41" s="3">
-        <v>96200</v>
+        <v>93200</v>
       </c>
       <c r="H41" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1775,7 +1775,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>152500</v>
+        <v>147800</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>40000</v>
+        <v>38800</v>
       </c>
       <c r="E43" s="3">
-        <v>64200</v>
+        <v>62200</v>
       </c>
       <c r="F43" s="3">
-        <v>74800</v>
+        <v>72500</v>
       </c>
       <c r="G43" s="3">
-        <v>41600</v>
+        <v>40400</v>
       </c>
       <c r="H43" s="3">
-        <v>22200</v>
+        <v>21500</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1847,19 +1847,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>60200</v>
+        <v>58300</v>
       </c>
       <c r="E44" s="3">
-        <v>98900</v>
+        <v>95900</v>
       </c>
       <c r="F44" s="3">
-        <v>87700</v>
+        <v>85000</v>
       </c>
       <c r="G44" s="3">
-        <v>71700</v>
+        <v>69400</v>
       </c>
       <c r="H44" s="3">
-        <v>12400</v>
+        <v>12100</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="E45" s="3">
-        <v>38400</v>
+        <v>37200</v>
       </c>
       <c r="F45" s="3">
-        <v>31100</v>
+        <v>30100</v>
       </c>
       <c r="G45" s="3">
-        <v>12500</v>
+        <v>12200</v>
       </c>
       <c r="H45" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>498700</v>
+        <v>483400</v>
       </c>
       <c r="E46" s="3">
-        <v>647600</v>
+        <v>627700</v>
       </c>
       <c r="F46" s="3">
-        <v>1007600</v>
+        <v>976700</v>
       </c>
       <c r="G46" s="3">
-        <v>223400</v>
+        <v>216600</v>
       </c>
       <c r="H46" s="3">
-        <v>40900</v>
+        <v>39700</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1955,13 +1955,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>71400</v>
+        <v>69200</v>
       </c>
       <c r="E47" s="3">
-        <v>49800</v>
+        <v>48300</v>
       </c>
       <c r="F47" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>29700</v>
+        <v>28700</v>
       </c>
       <c r="E48" s="3">
-        <v>95000</v>
+        <v>92100</v>
       </c>
       <c r="F48" s="3">
-        <v>116800</v>
+        <v>113300</v>
       </c>
       <c r="G48" s="3">
-        <v>53000</v>
+        <v>51400</v>
       </c>
       <c r="H48" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2027,16 +2027,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>219900</v>
+        <v>213100</v>
       </c>
       <c r="E49" s="3">
-        <v>229600</v>
+        <v>222600</v>
       </c>
       <c r="F49" s="3">
-        <v>29800</v>
+        <v>28900</v>
       </c>
       <c r="G49" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
@@ -2135,16 +2135,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13700</v>
+        <v>13300</v>
       </c>
       <c r="E52" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="F52" s="3">
-        <v>21700</v>
+        <v>21000</v>
       </c>
       <c r="G52" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="H52" s="3">
         <v>1800</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>833400</v>
+        <v>807800</v>
       </c>
       <c r="E54" s="3">
-        <v>1033700</v>
+        <v>1001900</v>
       </c>
       <c r="F54" s="3">
-        <v>1180900</v>
+        <v>1144600</v>
       </c>
       <c r="G54" s="3">
-        <v>285800</v>
+        <v>277000</v>
       </c>
       <c r="H54" s="3">
-        <v>46700</v>
+        <v>45200</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17000</v>
+        <v>16500</v>
       </c>
       <c r="E57" s="3">
-        <v>34200</v>
+        <v>33200</v>
       </c>
       <c r="F57" s="3">
-        <v>66300</v>
+        <v>64300</v>
       </c>
       <c r="G57" s="3">
-        <v>56900</v>
+        <v>55200</v>
       </c>
       <c r="H57" s="3">
-        <v>12800</v>
+        <v>12400</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>66600</v>
+        <v>64600</v>
       </c>
       <c r="E59" s="3">
-        <v>90500</v>
+        <v>87700</v>
       </c>
       <c r="F59" s="3">
-        <v>94400</v>
+        <v>91500</v>
       </c>
       <c r="G59" s="3">
-        <v>51600</v>
+        <v>50000</v>
       </c>
       <c r="H59" s="3">
-        <v>13400</v>
+        <v>13000</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>83600</v>
+        <v>81100</v>
       </c>
       <c r="E60" s="3">
-        <v>124700</v>
+        <v>120900</v>
       </c>
       <c r="F60" s="3">
-        <v>160700</v>
+        <v>155800</v>
       </c>
       <c r="G60" s="3">
-        <v>108500</v>
+        <v>105200</v>
       </c>
       <c r="H60" s="3">
-        <v>26600</v>
+        <v>25800</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2455,16 +2455,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>30100</v>
+        <v>29200</v>
       </c>
       <c r="E62" s="3">
-        <v>55000</v>
+        <v>53300</v>
       </c>
       <c r="F62" s="3">
-        <v>44600</v>
+        <v>43200</v>
       </c>
       <c r="G62" s="3">
-        <v>24600</v>
+        <v>23800</v>
       </c>
       <c r="H62" s="3">
         <v>1600</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>162500</v>
+        <v>157500</v>
       </c>
       <c r="E66" s="3">
-        <v>229300</v>
+        <v>222200</v>
       </c>
       <c r="F66" s="3">
-        <v>207400</v>
+        <v>201100</v>
       </c>
       <c r="G66" s="3">
-        <v>133100</v>
+        <v>129000</v>
       </c>
       <c r="H66" s="3">
-        <v>28300</v>
+        <v>27400</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>160600</v>
+        <v>155700</v>
       </c>
       <c r="H70" s="3">
-        <v>26700</v>
+        <v>25900</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-934800</v>
+        <v>-906100</v>
       </c>
       <c r="E72" s="3">
-        <v>-818900</v>
+        <v>-793700</v>
       </c>
       <c r="F72" s="3">
-        <v>-599900</v>
+        <v>-581400</v>
       </c>
       <c r="G72" s="3">
-        <v>-10000</v>
+        <v>-9700</v>
       </c>
       <c r="H72" s="3">
-        <v>-8500</v>
+        <v>-8300</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>670900</v>
+        <v>650200</v>
       </c>
       <c r="E76" s="3">
-        <v>804500</v>
+        <v>779700</v>
       </c>
       <c r="F76" s="3">
-        <v>973500</v>
+        <v>943600</v>
       </c>
       <c r="G76" s="3">
-        <v>-7900</v>
+        <v>-7700</v>
       </c>
       <c r="H76" s="3">
-        <v>-8300</v>
+        <v>-8100</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-115900</v>
+        <v>-112300</v>
       </c>
       <c r="E81" s="3">
-        <v>-219000</v>
+        <v>-212300</v>
       </c>
       <c r="F81" s="3">
-        <v>-566400</v>
+        <v>-548900</v>
       </c>
       <c r="G81" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="H81" s="3">
-        <v>-6700</v>
+        <v>-6500</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>24300</v>
+        <v>23500</v>
       </c>
       <c r="E83" s="3">
-        <v>25800</v>
+        <v>25000</v>
       </c>
       <c r="F83" s="3">
-        <v>11100</v>
+        <v>10800</v>
       </c>
       <c r="G83" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>19400</v>
+        <v>18800</v>
       </c>
       <c r="E89" s="3">
-        <v>-145100</v>
+        <v>-140600</v>
       </c>
       <c r="F89" s="3">
-        <v>-139800</v>
+        <v>-135500</v>
       </c>
       <c r="G89" s="3">
         <v>-900</v>
       </c>
       <c r="H89" s="3">
-        <v>-13700</v>
+        <v>-13300</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3372,16 +3372,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7200</v>
+        <v>-7000</v>
       </c>
       <c r="E91" s="3">
-        <v>-20100</v>
+        <v>-19500</v>
       </c>
       <c r="F91" s="3">
-        <v>-32100</v>
+        <v>-31100</v>
       </c>
       <c r="G91" s="3">
-        <v>-15100</v>
+        <v>-14700</v>
       </c>
       <c r="H91" s="3">
         <v>-500</v>
@@ -3480,16 +3480,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-164200</v>
+        <v>-159200</v>
       </c>
       <c r="E94" s="3">
-        <v>-211000</v>
+        <v>-204500</v>
       </c>
       <c r="F94" s="3">
-        <v>-72300</v>
+        <v>-70100</v>
       </c>
       <c r="G94" s="3">
-        <v>-21100</v>
+        <v>-20400</v>
       </c>
       <c r="H94" s="3">
         <v>-1100</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-93000</v>
+        <v>-90200</v>
       </c>
       <c r="E100" s="3">
         <v>-200</v>
       </c>
       <c r="F100" s="3">
-        <v>949700</v>
+        <v>920500</v>
       </c>
       <c r="G100" s="3">
-        <v>113000</v>
+        <v>109600</v>
       </c>
       <c r="H100" s="3">
-        <v>17600</v>
+        <v>17000</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3712,13 +3712,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>12800</v>
+        <v>12400</v>
       </c>
       <c r="E101" s="3">
-        <v>-12600</v>
+        <v>-12300</v>
       </c>
       <c r="F101" s="3">
-        <v>-18700</v>
+        <v>-18200</v>
       </c>
       <c r="G101" s="3">
         <v>1500</v>
@@ -3748,19 +3748,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-225100</v>
+        <v>-218200</v>
       </c>
       <c r="E102" s="3">
-        <v>-368900</v>
+        <v>-357600</v>
       </c>
       <c r="F102" s="3">
-        <v>718800</v>
+        <v>696700</v>
       </c>
       <c r="G102" s="3">
-        <v>92600</v>
+        <v>89800</v>
       </c>
       <c r="H102" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/YSG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YSG_YR_FIN.xlsx
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>510600</v>
+        <v>511700</v>
       </c>
       <c r="E8" s="3">
-        <v>804600</v>
+        <v>806400</v>
       </c>
       <c r="F8" s="3">
-        <v>721000</v>
+        <v>722600</v>
       </c>
       <c r="G8" s="3">
-        <v>417600</v>
+        <v>418500</v>
       </c>
       <c r="H8" s="3">
-        <v>87500</v>
+        <v>87700</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,16 +757,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>163600</v>
+        <v>164000</v>
       </c>
       <c r="E9" s="3">
-        <v>267500</v>
+        <v>268000</v>
       </c>
       <c r="F9" s="3">
-        <v>254700</v>
+        <v>255200</v>
       </c>
       <c r="G9" s="3">
-        <v>152000</v>
+        <v>152400</v>
       </c>
       <c r="H9" s="3">
         <v>32000</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>347000</v>
+        <v>347800</v>
       </c>
       <c r="E10" s="3">
-        <v>537200</v>
+        <v>538300</v>
       </c>
       <c r="F10" s="3">
-        <v>466400</v>
+        <v>467400</v>
       </c>
       <c r="G10" s="3">
-        <v>265600</v>
+        <v>266200</v>
       </c>
       <c r="H10" s="3">
-        <v>55600</v>
+        <v>55700</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>700</v>
+        <v>10700</v>
       </c>
       <c r="E14" s="3">
         <v>200</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>639300</v>
+        <v>640700</v>
       </c>
       <c r="E17" s="3">
-        <v>1028600</v>
+        <v>1030800</v>
       </c>
       <c r="F17" s="3">
-        <v>1090600</v>
+        <v>1093000</v>
       </c>
       <c r="G17" s="3">
-        <v>397800</v>
+        <v>398700</v>
       </c>
       <c r="H17" s="3">
-        <v>92100</v>
+        <v>92300</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,16 +1038,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-128700</v>
+        <v>-129000</v>
       </c>
       <c r="E18" s="3">
-        <v>-224000</v>
+        <v>-224500</v>
       </c>
       <c r="F18" s="3">
-        <v>-369600</v>
+        <v>-370400</v>
       </c>
       <c r="G18" s="3">
-        <v>19800</v>
+        <v>19900</v>
       </c>
       <c r="H18" s="3">
         <v>-4600</v>
@@ -1126,16 +1126,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-89200</v>
+        <v>-89500</v>
       </c>
       <c r="E21" s="3">
-        <v>-188300</v>
+        <v>-188700</v>
       </c>
       <c r="F21" s="3">
-        <v>-358700</v>
+        <v>-359500</v>
       </c>
       <c r="G21" s="3">
-        <v>22200</v>
+        <v>22300</v>
       </c>
       <c r="H21" s="3">
         <v>-4900</v>
@@ -1198,13 +1198,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-112800</v>
+        <v>-113000</v>
       </c>
       <c r="E23" s="3">
-        <v>-213300</v>
+        <v>-213700</v>
       </c>
       <c r="F23" s="3">
-        <v>-369400</v>
+        <v>-370300</v>
       </c>
       <c r="G23" s="3">
         <v>20300</v>
@@ -1306,13 +1306,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-113200</v>
+        <v>-113400</v>
       </c>
       <c r="E26" s="3">
-        <v>-213200</v>
+        <v>-213600</v>
       </c>
       <c r="F26" s="3">
-        <v>-370400</v>
+        <v>-371200</v>
       </c>
       <c r="G26" s="3">
         <v>10400</v>
@@ -1342,13 +1342,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-112300</v>
+        <v>-112600</v>
       </c>
       <c r="E27" s="3">
-        <v>-212300</v>
+        <v>-212700</v>
       </c>
       <c r="F27" s="3">
-        <v>-548900</v>
+        <v>-550100</v>
       </c>
       <c r="G27" s="3">
         <v>-6200</v>
@@ -1558,13 +1558,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-112300</v>
+        <v>-112600</v>
       </c>
       <c r="E33" s="3">
-        <v>-212300</v>
+        <v>-212700</v>
       </c>
       <c r="F33" s="3">
-        <v>-548900</v>
+        <v>-550100</v>
       </c>
       <c r="G33" s="3">
         <v>-6200</v>
@@ -1630,13 +1630,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-112300</v>
+        <v>-112600</v>
       </c>
       <c r="E35" s="3">
-        <v>-212300</v>
+        <v>-212700</v>
       </c>
       <c r="F35" s="3">
-        <v>-548900</v>
+        <v>-550100</v>
       </c>
       <c r="G35" s="3">
         <v>-6200</v>
@@ -1739,16 +1739,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>208500</v>
+        <v>208900</v>
       </c>
       <c r="E41" s="3">
-        <v>432400</v>
+        <v>433300</v>
       </c>
       <c r="F41" s="3">
-        <v>789100</v>
+        <v>790800</v>
       </c>
       <c r="G41" s="3">
-        <v>93200</v>
+        <v>93400</v>
       </c>
       <c r="H41" s="3">
         <v>3500</v>
@@ -1775,7 +1775,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>147800</v>
+        <v>148100</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -1811,16 +1811,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>38800</v>
+        <v>38900</v>
       </c>
       <c r="E43" s="3">
-        <v>62200</v>
+        <v>62400</v>
       </c>
       <c r="F43" s="3">
-        <v>72500</v>
+        <v>72700</v>
       </c>
       <c r="G43" s="3">
-        <v>40400</v>
+        <v>40500</v>
       </c>
       <c r="H43" s="3">
         <v>21500</v>
@@ -1847,16 +1847,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>58300</v>
+        <v>58400</v>
       </c>
       <c r="E44" s="3">
-        <v>95900</v>
+        <v>96100</v>
       </c>
       <c r="F44" s="3">
-        <v>85000</v>
+        <v>85200</v>
       </c>
       <c r="G44" s="3">
-        <v>69400</v>
+        <v>69600</v>
       </c>
       <c r="H44" s="3">
         <v>12100</v>
@@ -1883,13 +1883,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>30000</v>
+        <v>30100</v>
       </c>
       <c r="E45" s="3">
-        <v>37200</v>
+        <v>37300</v>
       </c>
       <c r="F45" s="3">
-        <v>30100</v>
+        <v>30200</v>
       </c>
       <c r="G45" s="3">
         <v>12200</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>483400</v>
+        <v>484400</v>
       </c>
       <c r="E46" s="3">
-        <v>627700</v>
+        <v>629100</v>
       </c>
       <c r="F46" s="3">
-        <v>976700</v>
+        <v>978800</v>
       </c>
       <c r="G46" s="3">
-        <v>216600</v>
+        <v>217000</v>
       </c>
       <c r="H46" s="3">
-        <v>39700</v>
+        <v>39800</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1955,10 +1955,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>69200</v>
+        <v>69400</v>
       </c>
       <c r="E47" s="3">
-        <v>48300</v>
+        <v>48400</v>
       </c>
       <c r="F47" s="3">
         <v>4800</v>
@@ -1991,16 +1991,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>28700</v>
+        <v>28800</v>
       </c>
       <c r="E48" s="3">
-        <v>92100</v>
+        <v>92300</v>
       </c>
       <c r="F48" s="3">
-        <v>113300</v>
+        <v>113500</v>
       </c>
       <c r="G48" s="3">
-        <v>51400</v>
+        <v>51500</v>
       </c>
       <c r="H48" s="3">
         <v>3200</v>
@@ -2027,13 +2027,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>213100</v>
+        <v>213600</v>
       </c>
       <c r="E49" s="3">
-        <v>222600</v>
+        <v>223000</v>
       </c>
       <c r="F49" s="3">
-        <v>28900</v>
+        <v>29000</v>
       </c>
       <c r="G49" s="3">
         <v>4200</v>
@@ -2138,10 +2138,10 @@
         <v>13300</v>
       </c>
       <c r="E52" s="3">
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="F52" s="3">
-        <v>21000</v>
+        <v>21100</v>
       </c>
       <c r="G52" s="3">
         <v>4800</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>807800</v>
+        <v>809500</v>
       </c>
       <c r="E54" s="3">
-        <v>1001900</v>
+        <v>1004100</v>
       </c>
       <c r="F54" s="3">
-        <v>1144600</v>
+        <v>1147100</v>
       </c>
       <c r="G54" s="3">
-        <v>277000</v>
+        <v>277600</v>
       </c>
       <c r="H54" s="3">
-        <v>45200</v>
+        <v>45300</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2278,16 +2278,16 @@
         <v>16500</v>
       </c>
       <c r="E57" s="3">
-        <v>33200</v>
+        <v>33300</v>
       </c>
       <c r="F57" s="3">
-        <v>64300</v>
+        <v>64400</v>
       </c>
       <c r="G57" s="3">
-        <v>55200</v>
+        <v>55300</v>
       </c>
       <c r="H57" s="3">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2347,16 +2347,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>64600</v>
+        <v>64700</v>
       </c>
       <c r="E59" s="3">
-        <v>87700</v>
+        <v>87900</v>
       </c>
       <c r="F59" s="3">
-        <v>91500</v>
+        <v>91700</v>
       </c>
       <c r="G59" s="3">
-        <v>50000</v>
+        <v>50100</v>
       </c>
       <c r="H59" s="3">
         <v>13000</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>81100</v>
+        <v>81200</v>
       </c>
       <c r="E60" s="3">
-        <v>120900</v>
+        <v>121200</v>
       </c>
       <c r="F60" s="3">
-        <v>155800</v>
+        <v>156100</v>
       </c>
       <c r="G60" s="3">
-        <v>105200</v>
+        <v>105400</v>
       </c>
       <c r="H60" s="3">
-        <v>25800</v>
+        <v>25900</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2458,13 +2458,13 @@
         <v>29200</v>
       </c>
       <c r="E62" s="3">
-        <v>53300</v>
+        <v>53400</v>
       </c>
       <c r="F62" s="3">
-        <v>43200</v>
+        <v>43300</v>
       </c>
       <c r="G62" s="3">
-        <v>23800</v>
+        <v>23900</v>
       </c>
       <c r="H62" s="3">
         <v>1600</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>157500</v>
+        <v>157900</v>
       </c>
       <c r="E66" s="3">
-        <v>222200</v>
+        <v>222700</v>
       </c>
       <c r="F66" s="3">
-        <v>201100</v>
+        <v>201500</v>
       </c>
       <c r="G66" s="3">
-        <v>129000</v>
+        <v>129300</v>
       </c>
       <c r="H66" s="3">
-        <v>27400</v>
+        <v>27500</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>155700</v>
+        <v>156000</v>
       </c>
       <c r="H70" s="3">
         <v>25900</v>
@@ -2795,13 +2795,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-906100</v>
+        <v>-908000</v>
       </c>
       <c r="E72" s="3">
-        <v>-793700</v>
+        <v>-795500</v>
       </c>
       <c r="F72" s="3">
-        <v>-581400</v>
+        <v>-582700</v>
       </c>
       <c r="G72" s="3">
         <v>-9700</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>650200</v>
+        <v>651700</v>
       </c>
       <c r="E76" s="3">
-        <v>779700</v>
+        <v>781400</v>
       </c>
       <c r="F76" s="3">
-        <v>943600</v>
+        <v>945600</v>
       </c>
       <c r="G76" s="3">
         <v>-7700</v>
       </c>
       <c r="H76" s="3">
-        <v>-8100</v>
+        <v>-8000</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,13 +3052,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-112300</v>
+        <v>-112600</v>
       </c>
       <c r="E81" s="3">
-        <v>-212300</v>
+        <v>-212700</v>
       </c>
       <c r="F81" s="3">
-        <v>-548900</v>
+        <v>-550100</v>
       </c>
       <c r="G81" s="3">
         <v>-6200</v>
@@ -3104,7 +3104,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>23500</v>
+        <v>23600</v>
       </c>
       <c r="E83" s="3">
         <v>25000</v>
@@ -3323,10 +3323,10 @@
         <v>18800</v>
       </c>
       <c r="E89" s="3">
-        <v>-140600</v>
+        <v>-140900</v>
       </c>
       <c r="F89" s="3">
-        <v>-135500</v>
+        <v>-135800</v>
       </c>
       <c r="G89" s="3">
         <v>-900</v>
@@ -3480,16 +3480,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-159200</v>
+        <v>-159500</v>
       </c>
       <c r="E94" s="3">
-        <v>-204500</v>
+        <v>-204900</v>
       </c>
       <c r="F94" s="3">
-        <v>-70100</v>
+        <v>-70300</v>
       </c>
       <c r="G94" s="3">
-        <v>-20400</v>
+        <v>-20500</v>
       </c>
       <c r="H94" s="3">
         <v>-1100</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-90200</v>
+        <v>-90400</v>
       </c>
       <c r="E100" s="3">
         <v>-200</v>
       </c>
       <c r="F100" s="3">
-        <v>920500</v>
+        <v>922500</v>
       </c>
       <c r="G100" s="3">
-        <v>109600</v>
+        <v>109800</v>
       </c>
       <c r="H100" s="3">
-        <v>17000</v>
+        <v>17100</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3748,16 +3748,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-218200</v>
+        <v>-218700</v>
       </c>
       <c r="E102" s="3">
-        <v>-357600</v>
+        <v>-358400</v>
       </c>
       <c r="F102" s="3">
-        <v>696700</v>
+        <v>698200</v>
       </c>
       <c r="G102" s="3">
-        <v>89800</v>
+        <v>90000</v>
       </c>
       <c r="H102" s="3">
         <v>2800</v>
